--- a/Tickets año.xlsx
+++ b/Tickets año.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danna\OneDrive - Benemérita Universidad Autónoma de Puebla\Documentos\Proyectos personales\Reporte mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E467C189-830F-4C75-8DC1-5FE777A9E57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BD0F4C-47D5-4C20-8227-A83038F8E08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05309E47-F77E-413D-9CB3-D47FDD72FDB1}"/>
   </bookViews>
@@ -9488,8 +9488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A557BAA1-5C05-4C8D-9FC3-FF8259F03E7A}">
   <dimension ref="A1:M1393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1386" zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1402" sqref="C1402"/>
+    <sheetView tabSelected="1" topLeftCell="A1368" zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1375" sqref="C1375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Tickets año.xlsx
+++ b/Tickets año.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danna\OneDrive - Benemérita Universidad Autónoma de Puebla\Documentos\Proyectos personales\Reporte mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BD0F4C-47D5-4C20-8227-A83038F8E08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C3A56D-0469-45B8-9987-D8EA96E14617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05309E47-F77E-413D-9CB3-D47FDD72FDB1}"/>
   </bookViews>
@@ -8571,7 +8571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8646,12 +8646,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9488,8 +9482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A557BAA1-5C05-4C8D-9FC3-FF8259F03E7A}">
   <dimension ref="A1:M1393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1368" zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1375" sqref="C1375"/>
+    <sheetView tabSelected="1" topLeftCell="C1373" zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1384" sqref="E1384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -73038,27 +73032,27 @@
         <v>46007.449305555558</v>
       </c>
       <c r="G1378" s="16"/>
-      <c r="H1378" s="26">
-        <f>INT((A1378-DATE(YEAR(A1378),1,1))/7) + 1</f>
+      <c r="H1378" s="20">
+        <f t="shared" ref="H1378:H1393" si="113">INT((A1378-DATE(YEAR(A1378),1,1))/7) + 1</f>
         <v>50</v>
       </c>
-      <c r="I1378" s="26">
-        <f>MAX(1,NETWORKDAYS(A1378,G1378,DATE(2025,11,17)))</f>
-        <v>1</v>
-      </c>
-      <c r="J1378" s="26" t="str">
-        <f>IF(G1378="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1378)),"ASAP",IF(I1378&lt;=7,"Dentro",IF(A1378&gt;F1378,"Programado","Fuera"))))</f>
+      <c r="I1378" s="20">
+        <f t="shared" ref="I1378:I1393" si="114">MAX(1,NETWORKDAYS(A1378,G1378,DATE(2025,11,17)))</f>
+        <v>1</v>
+      </c>
+      <c r="J1378" s="20" t="str">
+        <f t="shared" ref="J1378:J1393" si="115">IF(G1378="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1378)),"ASAP",IF(I1378&lt;=7,"Dentro",IF(A1378&gt;F1378,"Programado","Fuera"))))</f>
         <v>Acumulado</v>
       </c>
-      <c r="K1378" s="26" t="str">
-        <f>IF(INT(A1378)=INT(F1378),"A tiempo", IF(A1378&lt;F1378,"Mismo día","Programados"))</f>
+      <c r="K1378" s="20" t="str">
+        <f t="shared" ref="K1378:K1393" si="116">IF(INT(A1378)=INT(F1378),"A tiempo", IF(A1378&lt;F1378,"Mismo día","Programados"))</f>
         <v>A tiempo</v>
       </c>
       <c r="L1378" s="16">
         <v>46007</v>
       </c>
-      <c r="M1378" s="27">
-        <f>MAX(1,NETWORKDAYS(A1378,L1378))</f>
+      <c r="M1378" s="23">
+        <f t="shared" ref="M1378:M1393" si="117">MAX(1,NETWORKDAYS(A1378,L1378))</f>
         <v>1</v>
       </c>
     </row>
@@ -73085,27 +73079,27 @@
       <c r="G1379" s="16">
         <v>46010</v>
       </c>
-      <c r="H1379" s="26">
-        <f>INT((A1379-DATE(YEAR(A1379),1,1))/7) + 1</f>
+      <c r="H1379" s="20">
+        <f t="shared" si="113"/>
         <v>51</v>
       </c>
-      <c r="I1379" s="26">
-        <f>MAX(1,NETWORKDAYS(A1379,G1379,DATE(2025,11,17)))</f>
+      <c r="I1379" s="20">
+        <f t="shared" si="114"/>
         <v>3</v>
       </c>
-      <c r="J1379" s="26" t="str">
-        <f>IF(G1379="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1379)),"ASAP",IF(I1379&lt;=7,"Dentro",IF(A1379&gt;F1379,"Programado","Fuera"))))</f>
-        <v>Dentro</v>
-      </c>
-      <c r="K1379" s="26" t="str">
-        <f>IF(INT(A1379)=INT(F1379),"A tiempo", IF(A1379&lt;F1379,"Mismo día","Programados"))</f>
+      <c r="J1379" s="20" t="str">
+        <f t="shared" si="115"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1379" s="20" t="str">
+        <f t="shared" si="116"/>
         <v>Programados</v>
       </c>
       <c r="L1379" s="16">
         <v>46008</v>
       </c>
-      <c r="M1379" s="27">
-        <f>MAX(1,NETWORKDAYS(A1379,L1379))</f>
+      <c r="M1379" s="23">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -73132,27 +73126,27 @@
       <c r="G1380" s="16">
         <v>46010</v>
       </c>
-      <c r="H1380" s="26">
-        <f>INT((A1380-DATE(YEAR(A1380),1,1))/7) + 1</f>
+      <c r="H1380" s="20">
+        <f t="shared" si="113"/>
         <v>51</v>
       </c>
-      <c r="I1380" s="26">
-        <f>MAX(1,NETWORKDAYS(A1380,G1380,DATE(2025,11,17)))</f>
+      <c r="I1380" s="20">
+        <f t="shared" si="114"/>
         <v>3</v>
       </c>
-      <c r="J1380" s="26" t="str">
-        <f>IF(G1380="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1380)),"ASAP",IF(I1380&lt;=7,"Dentro",IF(A1380&gt;F1380,"Programado","Fuera"))))</f>
-        <v>Dentro</v>
-      </c>
-      <c r="K1380" s="26" t="str">
-        <f>IF(INT(A1380)=INT(F1380),"A tiempo", IF(A1380&lt;F1380,"Mismo día","Programados"))</f>
+      <c r="J1380" s="20" t="str">
+        <f t="shared" si="115"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1380" s="20" t="str">
+        <f t="shared" si="116"/>
         <v>A tiempo</v>
       </c>
       <c r="L1380" s="16">
         <v>46008</v>
       </c>
-      <c r="M1380" s="27">
-        <f>MAX(1,NETWORKDAYS(A1380,L1380))</f>
+      <c r="M1380" s="23">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -73177,27 +73171,27 @@
       <c r="G1381" s="16">
         <v>46010</v>
       </c>
-      <c r="H1381" s="26">
-        <f>INT((A1381-DATE(YEAR(A1381),1,1))/7) + 1</f>
+      <c r="H1381" s="20">
+        <f t="shared" si="113"/>
         <v>51</v>
       </c>
-      <c r="I1381" s="26">
-        <f>MAX(1,NETWORKDAYS(A1381,G1381,DATE(2025,11,17)))</f>
+      <c r="I1381" s="20">
+        <f t="shared" si="114"/>
         <v>3</v>
       </c>
-      <c r="J1381" s="26" t="str">
-        <f>IF(G1381="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1381)),"ASAP",IF(I1381&lt;=7,"Dentro",IF(A1381&gt;F1381,"Programado","Fuera"))))</f>
-        <v>Dentro</v>
-      </c>
-      <c r="K1381" s="26" t="str">
-        <f>IF(INT(A1381)=INT(F1381),"A tiempo", IF(A1381&lt;F1381,"Mismo día","Programados"))</f>
+      <c r="J1381" s="20" t="str">
+        <f t="shared" si="115"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1381" s="20" t="str">
+        <f t="shared" si="116"/>
         <v>Programados</v>
       </c>
       <c r="L1381" s="16">
         <v>46009</v>
       </c>
-      <c r="M1381" s="27">
-        <f>MAX(1,NETWORKDAYS(A1381,L1381))</f>
+      <c r="M1381" s="23">
+        <f t="shared" si="117"/>
         <v>2</v>
       </c>
     </row>
@@ -73224,27 +73218,27 @@
       <c r="G1382" s="16">
         <v>46010</v>
       </c>
-      <c r="H1382" s="26">
-        <f>INT((A1382-DATE(YEAR(A1382),1,1))/7) + 1</f>
+      <c r="H1382" s="20">
+        <f t="shared" si="113"/>
         <v>51</v>
       </c>
-      <c r="I1382" s="26">
-        <f>MAX(1,NETWORKDAYS(A1382,G1382,DATE(2025,11,17)))</f>
+      <c r="I1382" s="20">
+        <f t="shared" si="114"/>
         <v>3</v>
       </c>
-      <c r="J1382" s="26" t="str">
-        <f>IF(G1382="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1382)),"ASAP",IF(I1382&lt;=7,"Dentro",IF(A1382&gt;F1382,"Programado","Fuera"))))</f>
-        <v>Dentro</v>
-      </c>
-      <c r="K1382" s="26" t="str">
-        <f>IF(INT(A1382)=INT(F1382),"A tiempo", IF(A1382&lt;F1382,"Mismo día","Programados"))</f>
+      <c r="J1382" s="20" t="str">
+        <f t="shared" si="115"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1382" s="20" t="str">
+        <f t="shared" si="116"/>
         <v>A tiempo</v>
       </c>
       <c r="L1382" s="16">
         <v>46008</v>
       </c>
-      <c r="M1382" s="27">
-        <f>MAX(1,NETWORKDAYS(A1382,L1382))</f>
+      <c r="M1382" s="23">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -73271,27 +73265,27 @@
       <c r="G1383" s="16">
         <v>46010</v>
       </c>
-      <c r="H1383" s="26">
-        <f>INT((A1383-DATE(YEAR(A1383),1,1))/7) + 1</f>
+      <c r="H1383" s="20">
+        <f t="shared" si="113"/>
         <v>51</v>
       </c>
-      <c r="I1383" s="26">
-        <f>MAX(1,NETWORKDAYS(A1383,G1383,DATE(2025,11,17)))</f>
+      <c r="I1383" s="20">
+        <f t="shared" si="114"/>
         <v>3</v>
       </c>
-      <c r="J1383" s="26" t="str">
-        <f>IF(G1383="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1383)),"ASAP",IF(I1383&lt;=7,"Dentro",IF(A1383&gt;F1383,"Programado","Fuera"))))</f>
-        <v>Dentro</v>
-      </c>
-      <c r="K1383" s="26" t="str">
-        <f>IF(INT(A1383)=INT(F1383),"A tiempo", IF(A1383&lt;F1383,"Mismo día","Programados"))</f>
+      <c r="J1383" s="20" t="str">
+        <f t="shared" si="115"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1383" s="20" t="str">
+        <f t="shared" si="116"/>
         <v>A tiempo</v>
       </c>
       <c r="L1383" s="16">
         <v>46008</v>
       </c>
-      <c r="M1383" s="27">
-        <f>MAX(1,NETWORKDAYS(A1383,L1383))</f>
+      <c r="M1383" s="23">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -73318,27 +73312,27 @@
       <c r="G1384" s="16">
         <v>46010</v>
       </c>
-      <c r="H1384" s="26">
-        <f>INT((A1384-DATE(YEAR(A1384),1,1))/7) + 1</f>
+      <c r="H1384" s="20">
+        <f t="shared" si="113"/>
         <v>51</v>
       </c>
-      <c r="I1384" s="26">
-        <f>MAX(1,NETWORKDAYS(A1384,G1384,DATE(2025,11,17)))</f>
+      <c r="I1384" s="20">
+        <f t="shared" si="114"/>
         <v>2</v>
       </c>
-      <c r="J1384" s="26" t="str">
-        <f>IF(G1384="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1384)),"ASAP",IF(I1384&lt;=7,"Dentro",IF(A1384&gt;F1384,"Programado","Fuera"))))</f>
-        <v>Dentro</v>
-      </c>
-      <c r="K1384" s="26" t="str">
-        <f>IF(INT(A1384)=INT(F1384),"A tiempo", IF(A1384&lt;F1384,"Mismo día","Programados"))</f>
+      <c r="J1384" s="20" t="str">
+        <f t="shared" si="115"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1384" s="20" t="str">
+        <f t="shared" si="116"/>
         <v>A tiempo</v>
       </c>
       <c r="L1384" s="16">
         <v>46009</v>
       </c>
-      <c r="M1384" s="27">
-        <f>MAX(1,NETWORKDAYS(A1384,L1384))</f>
+      <c r="M1384" s="23">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -73363,27 +73357,27 @@
         <v>46009</v>
       </c>
       <c r="G1385" s="16"/>
-      <c r="H1385" s="26">
-        <f>INT((A1385-DATE(YEAR(A1385),1,1))/7) + 1</f>
+      <c r="H1385" s="20">
+        <f t="shared" si="113"/>
         <v>51</v>
       </c>
-      <c r="I1385" s="26">
-        <f>MAX(1,NETWORKDAYS(A1385,G1385,DATE(2025,11,17)))</f>
-        <v>1</v>
-      </c>
-      <c r="J1385" s="26" t="str">
-        <f>IF(G1385="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1385)),"ASAP",IF(I1385&lt;=7,"Dentro",IF(A1385&gt;F1385,"Programado","Fuera"))))</f>
+      <c r="I1385" s="20">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="J1385" s="20" t="str">
+        <f t="shared" si="115"/>
         <v>Acumulado</v>
       </c>
-      <c r="K1385" s="26" t="str">
-        <f>IF(INT(A1385)=INT(F1385),"A tiempo", IF(A1385&lt;F1385,"Mismo día","Programados"))</f>
+      <c r="K1385" s="20" t="str">
+        <f t="shared" si="116"/>
         <v>A tiempo</v>
       </c>
       <c r="L1385" s="16">
         <v>46009</v>
       </c>
-      <c r="M1385" s="27">
-        <f>MAX(1,NETWORKDAYS(A1385,L1385))</f>
+      <c r="M1385" s="23">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -73410,27 +73404,27 @@
       <c r="G1386" s="16">
         <v>46010</v>
       </c>
-      <c r="H1386" s="26">
-        <f>INT((A1386-DATE(YEAR(A1386),1,1))/7) + 1</f>
+      <c r="H1386" s="20">
+        <f t="shared" si="113"/>
         <v>51</v>
       </c>
-      <c r="I1386" s="26">
-        <f>MAX(1,NETWORKDAYS(A1386,G1386,DATE(2025,11,17)))</f>
+      <c r="I1386" s="20">
+        <f t="shared" si="114"/>
         <v>2</v>
       </c>
-      <c r="J1386" s="26" t="str">
-        <f>IF(G1386="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1386)),"ASAP",IF(I1386&lt;=7,"Dentro",IF(A1386&gt;F1386,"Programado","Fuera"))))</f>
-        <v>Dentro</v>
-      </c>
-      <c r="K1386" s="26" t="str">
-        <f>IF(INT(A1386)=INT(F1386),"A tiempo", IF(A1386&lt;F1386,"Mismo día","Programados"))</f>
+      <c r="J1386" s="20" t="str">
+        <f t="shared" si="115"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1386" s="20" t="str">
+        <f t="shared" si="116"/>
         <v>A tiempo</v>
       </c>
       <c r="L1386" s="16">
         <v>46009</v>
       </c>
-      <c r="M1386" s="27">
-        <f>MAX(1,NETWORKDAYS(A1386,L1386))</f>
+      <c r="M1386" s="23">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -73457,27 +73451,27 @@
       <c r="G1387" s="16">
         <v>46010</v>
       </c>
-      <c r="H1387" s="26">
-        <f>INT((A1387-DATE(YEAR(A1387),1,1))/7) + 1</f>
+      <c r="H1387" s="20">
+        <f t="shared" si="113"/>
         <v>51</v>
       </c>
-      <c r="I1387" s="26">
-        <f>MAX(1,NETWORKDAYS(A1387,G1387,DATE(2025,11,17)))</f>
+      <c r="I1387" s="20">
+        <f t="shared" si="114"/>
         <v>2</v>
       </c>
-      <c r="J1387" s="26" t="str">
-        <f>IF(G1387="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1387)),"ASAP",IF(I1387&lt;=7,"Dentro",IF(A1387&gt;F1387,"Programado","Fuera"))))</f>
-        <v>Dentro</v>
-      </c>
-      <c r="K1387" s="26" t="str">
-        <f>IF(INT(A1387)=INT(F1387),"A tiempo", IF(A1387&lt;F1387,"Mismo día","Programados"))</f>
+      <c r="J1387" s="20" t="str">
+        <f t="shared" si="115"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1387" s="20" t="str">
+        <f t="shared" si="116"/>
         <v>A tiempo</v>
       </c>
       <c r="L1387" s="16">
         <v>46009</v>
       </c>
-      <c r="M1387" s="27">
-        <f>MAX(1,NETWORKDAYS(A1387,L1387))</f>
+      <c r="M1387" s="23">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -73504,27 +73498,27 @@
       <c r="G1388" s="16">
         <v>46010</v>
       </c>
-      <c r="H1388" s="26">
-        <f>INT((A1388-DATE(YEAR(A1388),1,1))/7) + 1</f>
+      <c r="H1388" s="20">
+        <f t="shared" si="113"/>
         <v>51</v>
       </c>
-      <c r="I1388" s="26">
-        <f>MAX(1,NETWORKDAYS(A1388,G1388,DATE(2025,11,17)))</f>
-        <v>1</v>
-      </c>
-      <c r="J1388" s="26" t="str">
-        <f>IF(G1388="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1388)),"ASAP",IF(I1388&lt;=7,"Dentro",IF(A1388&gt;F1388,"Programado","Fuera"))))</f>
-        <v>Dentro</v>
-      </c>
-      <c r="K1388" s="26" t="str">
-        <f>IF(INT(A1388)=INT(F1388),"A tiempo", IF(A1388&lt;F1388,"Mismo día","Programados"))</f>
+      <c r="I1388" s="20">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="J1388" s="20" t="str">
+        <f t="shared" si="115"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1388" s="20" t="str">
+        <f t="shared" si="116"/>
         <v>A tiempo</v>
       </c>
       <c r="L1388" s="16">
         <v>46010</v>
       </c>
-      <c r="M1388" s="27">
-        <f>MAX(1,NETWORKDAYS(A1388,L1388))</f>
+      <c r="M1388" s="23">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -73549,27 +73543,27 @@
       <c r="G1389" s="16">
         <v>46010</v>
       </c>
-      <c r="H1389" s="26">
-        <f>INT((A1389-DATE(YEAR(A1389),1,1))/7) + 1</f>
+      <c r="H1389" s="20">
+        <f t="shared" si="113"/>
         <v>51</v>
       </c>
-      <c r="I1389" s="26">
-        <f>MAX(1,NETWORKDAYS(A1389,G1389,DATE(2025,11,17)))</f>
-        <v>1</v>
-      </c>
-      <c r="J1389" s="26" t="str">
-        <f>IF(G1389="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1389)),"ASAP",IF(I1389&lt;=7,"Dentro",IF(A1389&gt;F1389,"Programado","Fuera"))))</f>
-        <v>Dentro</v>
-      </c>
-      <c r="K1389" s="26" t="str">
-        <f>IF(INT(A1389)=INT(F1389),"A tiempo", IF(A1389&lt;F1389,"Mismo día","Programados"))</f>
+      <c r="I1389" s="20">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="J1389" s="20" t="str">
+        <f t="shared" si="115"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1389" s="20" t="str">
+        <f t="shared" si="116"/>
         <v>Programados</v>
       </c>
       <c r="L1389" s="16">
         <v>46010</v>
       </c>
-      <c r="M1389" s="27">
-        <f>MAX(1,NETWORKDAYS(A1389,L1389))</f>
+      <c r="M1389" s="23">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -73596,27 +73590,27 @@
       <c r="G1390" s="16">
         <v>46010</v>
       </c>
-      <c r="H1390" s="26">
-        <f>INT((A1390-DATE(YEAR(A1390),1,1))/7) + 1</f>
+      <c r="H1390" s="20">
+        <f t="shared" si="113"/>
         <v>51</v>
       </c>
-      <c r="I1390" s="26">
-        <f>MAX(1,NETWORKDAYS(A1390,G1390,DATE(2025,11,17)))</f>
-        <v>1</v>
-      </c>
-      <c r="J1390" s="26" t="str">
-        <f>IF(G1390="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1390)),"ASAP",IF(I1390&lt;=7,"Dentro",IF(A1390&gt;F1390,"Programado","Fuera"))))</f>
-        <v>Dentro</v>
-      </c>
-      <c r="K1390" s="26" t="str">
-        <f>IF(INT(A1390)=INT(F1390),"A tiempo", IF(A1390&lt;F1390,"Mismo día","Programados"))</f>
+      <c r="I1390" s="20">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="J1390" s="20" t="str">
+        <f t="shared" si="115"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1390" s="20" t="str">
+        <f t="shared" si="116"/>
         <v>A tiempo</v>
       </c>
       <c r="L1390" s="16">
         <v>46010</v>
       </c>
-      <c r="M1390" s="27">
-        <f>MAX(1,NETWORKDAYS(A1390,L1390))</f>
+      <c r="M1390" s="23">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -73639,27 +73633,27 @@
         <v>0</v>
       </c>
       <c r="G1391" s="16"/>
-      <c r="H1391" s="26">
-        <f>INT((A1391-DATE(YEAR(A1391),1,1))/7) + 1</f>
+      <c r="H1391" s="20">
+        <f t="shared" si="113"/>
         <v>52</v>
       </c>
-      <c r="I1391" s="26">
-        <f>MAX(1,NETWORKDAYS(A1391,G1391,DATE(2025,11,17)))</f>
-        <v>1</v>
-      </c>
-      <c r="J1391" s="26" t="str">
-        <f>IF(G1391="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1391)),"ASAP",IF(I1391&lt;=7,"Dentro",IF(A1391&gt;F1391,"Programado","Fuera"))))</f>
+      <c r="I1391" s="20">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="J1391" s="20" t="str">
+        <f t="shared" si="115"/>
         <v>Acumulado</v>
       </c>
-      <c r="K1391" s="26" t="str">
-        <f>IF(INT(A1391)=INT(F1391),"A tiempo", IF(A1391&lt;F1391,"Mismo día","Programados"))</f>
+      <c r="K1391" s="20" t="str">
+        <f t="shared" si="116"/>
         <v>Programados</v>
       </c>
       <c r="L1391" s="16">
         <v>46020</v>
       </c>
-      <c r="M1391" s="27">
-        <f>MAX(1,NETWORKDAYS(A1391,L1391))</f>
+      <c r="M1391" s="23">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -73686,27 +73680,27 @@
       <c r="G1392" s="16">
         <v>46020</v>
       </c>
-      <c r="H1392" s="26">
-        <f>INT((A1392-DATE(YEAR(A1392),1,1))/7) + 1</f>
+      <c r="H1392" s="20">
+        <f t="shared" si="113"/>
         <v>52</v>
       </c>
-      <c r="I1392" s="26">
-        <f>MAX(1,NETWORKDAYS(A1392,G1392,DATE(2025,11,17)))</f>
-        <v>1</v>
-      </c>
-      <c r="J1392" s="26" t="str">
-        <f>IF(G1392="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1392)),"ASAP",IF(I1392&lt;=7,"Dentro",IF(A1392&gt;F1392,"Programado","Fuera"))))</f>
-        <v>Dentro</v>
-      </c>
-      <c r="K1392" s="26" t="str">
-        <f>IF(INT(A1392)=INT(F1392),"A tiempo", IF(A1392&lt;F1392,"Mismo día","Programados"))</f>
+      <c r="I1392" s="20">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="J1392" s="20" t="str">
+        <f t="shared" si="115"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1392" s="20" t="str">
+        <f t="shared" si="116"/>
         <v>A tiempo</v>
       </c>
       <c r="L1392" s="16">
         <v>46020</v>
       </c>
-      <c r="M1392" s="27">
-        <f>MAX(1,NETWORKDAYS(A1392,L1392))</f>
+      <c r="M1392" s="23">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -73729,27 +73723,27 @@
         <v>0</v>
       </c>
       <c r="G1393" s="16"/>
-      <c r="H1393" s="26">
-        <f>INT((A1393-DATE(YEAR(A1393),1,1))/7) + 1</f>
+      <c r="H1393" s="20">
+        <f t="shared" si="113"/>
         <v>52</v>
       </c>
-      <c r="I1393" s="26">
-        <f>MAX(1,NETWORKDAYS(A1393,G1393,DATE(2025,11,17)))</f>
-        <v>1</v>
-      </c>
-      <c r="J1393" s="26" t="str">
-        <f>IF(G1393="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1393)),"ASAP",IF(I1393&lt;=7,"Dentro",IF(A1393&gt;F1393,"Programado","Fuera"))))</f>
+      <c r="I1393" s="20">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="J1393" s="20" t="str">
+        <f t="shared" si="115"/>
         <v>Acumulado</v>
       </c>
-      <c r="K1393" s="26" t="str">
-        <f>IF(INT(A1393)=INT(F1393),"A tiempo", IF(A1393&lt;F1393,"Mismo día","Programados"))</f>
+      <c r="K1393" s="20" t="str">
+        <f t="shared" si="116"/>
         <v>Programados</v>
       </c>
       <c r="L1393" s="16">
         <v>46020</v>
       </c>
-      <c r="M1393" s="27">
-        <f>MAX(1,NETWORKDAYS(A1393,L1393))</f>
+      <c r="M1393" s="23">
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -73771,6 +73765,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009D7BF186FD1AD2439B4485692326A2C1" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="16c00868c62a6d04f5ab65f7f1e51a2e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a64998cf-cf83-41f5-8035-6179a29b75f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9201c9590aa9e2b03dccb5f0312f7ba" ns3:_="">
     <xsd:import namespace="a64998cf-cf83-41f5-8035-6179a29b75f5"/>
@@ -73958,15 +73961,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0334801F-93EC-4464-93FF-65010DFB5927}">
   <ds:schemaRefs>
@@ -73978,6 +73972,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71B820FD-D80D-47C3-B40F-F2564B00BC31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E923FBED-3605-438A-AA2E-0C6540DCFB47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -73993,12 +73995,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71B820FD-D80D-47C3-B40F-F2564B00BC31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Tickets año.xlsx
+++ b/Tickets año.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danna\OneDrive - Benemérita Universidad Autónoma de Puebla\Documentos\Proyectos personales\Reporte mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535E8525-A2F6-4AD2-B0C0-C6A09CFE02C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EFB086-34C6-4B4D-A959-0CD0D06DE3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05309E47-F77E-413D-9CB3-D47FDD72FDB1}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{05309E47-F77E-413D-9CB3-D47FDD72FDB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4192" uniqueCount="2789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4195" uniqueCount="2791">
   <si>
     <t>INICIO</t>
   </si>
@@ -8403,6 +8403,12 @@
   </si>
   <si>
     <t>Zárate Garza, Gustavo Fernando</t>
+  </si>
+  <si>
+    <t>SMART.224711</t>
+  </si>
+  <si>
+    <t>REVISION DE TONNER (02-01-26)</t>
   </si>
 </sst>
 </file>
@@ -8571,7 +8577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8646,6 +8652,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9127,8 +9139,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9A8F2CF-541A-476B-BF4C-44E73144D477}" name="Table1" displayName="Table1" ref="A1:M1393" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:M1393" xr:uid="{F9A8F2CF-541A-476B-BF4C-44E73144D477}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9A8F2CF-541A-476B-BF4C-44E73144D477}" name="Table1" displayName="Table1" ref="A1:M1394" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:M1394" xr:uid="{F9A8F2CF-541A-476B-BF4C-44E73144D477}">
     <filterColumn colId="6">
       <filters blank="1"/>
     </filterColumn>
@@ -9484,10 +9496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A557BAA1-5C05-4C8D-9FC3-FF8259F03E7A}">
-  <dimension ref="A1:M1393"/>
+  <dimension ref="A1:M1394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1197" zoomScale="54" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1348" sqref="I1348"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="54" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1296" sqref="F1296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -57687,18 +57699,20 @@
         <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1046)</f>
         <v>45967</v>
       </c>
-      <c r="G1046" s="15"/>
+      <c r="G1046" s="15">
+        <v>45967</v>
+      </c>
       <c r="H1046" s="7">
         <f t="shared" si="81"/>
         <v>39</v>
       </c>
       <c r="I1046" s="7">
         <f t="shared" si="82"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J1046" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>Acumulado</v>
+        <v>Fuera</v>
       </c>
       <c r="K1046" s="7" t="str">
         <f t="shared" si="83"/>
@@ -64677,18 +64691,20 @@
         <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1197)</f>
         <v>45966.423611111109</v>
       </c>
-      <c r="G1197" s="17"/>
+      <c r="G1197" s="17">
+        <v>46375</v>
+      </c>
       <c r="H1197" s="7">
         <f t="shared" si="91"/>
         <v>45</v>
       </c>
       <c r="I1197" s="7">
         <f t="shared" si="92"/>
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="J1197" s="7" t="str">
         <f t="shared" si="90"/>
-        <v>Acumulado</v>
+        <v>Fuera</v>
       </c>
       <c r="K1197" s="7" t="str">
         <f t="shared" si="95"/>
@@ -73636,18 +73652,20 @@
         <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1391)</f>
         <v>0</v>
       </c>
-      <c r="G1391" s="16"/>
+      <c r="G1391" s="16">
+        <v>46024</v>
+      </c>
       <c r="H1391" s="20">
         <f t="shared" si="113"/>
         <v>52</v>
       </c>
       <c r="I1391" s="20">
         <f t="shared" si="114"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J1391" s="20" t="str">
         <f t="shared" si="115"/>
-        <v>Acumulado</v>
+        <v>Dentro</v>
       </c>
       <c r="K1391" s="20" t="str">
         <f t="shared" si="116"/>
@@ -73748,6 +73766,47 @@
       </c>
       <c r="M1393" s="23">
         <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1394" s="16">
+        <v>46024</v>
+      </c>
+      <c r="B1394" s="20" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C1394" s="20" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D1394" s="20" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E1394" s="21"/>
+      <c r="F1394" s="16">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1394)</f>
+        <v>0</v>
+      </c>
+      <c r="G1394" s="16"/>
+      <c r="H1394" s="26">
+        <f>INT((A1394-DATE(YEAR(A1394),1,1))/7) + 1</f>
+        <v>1</v>
+      </c>
+      <c r="I1394" s="26">
+        <f>MAX(1,NETWORKDAYS(A1394,G1394,DATE(2025,11,17)))</f>
+        <v>1</v>
+      </c>
+      <c r="J1394" s="26" t="str">
+        <f>IF(G1394="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1394)),"ASAP",IF(I1394&lt;=7,"Dentro",IF(A1394&gt;F1394,"Programado","Fuera"))))</f>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1394" s="26" t="str">
+        <f>IF(INT(A1394)=INT(F1394),"A tiempo", IF(A1394&lt;F1394,"Mismo día","Programados"))</f>
+        <v>Programados</v>
+      </c>
+      <c r="L1394" s="16"/>
+      <c r="M1394" s="27">
+        <f>MAX(1,NETWORKDAYS(A1394,L1394))</f>
         <v>1</v>
       </c>
     </row>

--- a/Tickets año.xlsx
+++ b/Tickets año.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danna\OneDrive - Benemérita Universidad Autónoma de Puebla\Documentos\Proyectos personales\Reporte mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65055F0C-8163-4396-B565-9F65CC01F3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFEAD2C-CC1F-4130-9EC8-75CFBB30BFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{05309E47-F77E-413D-9CB3-D47FDD72FDB1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05309E47-F77E-413D-9CB3-D47FDD72FDB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4594" uniqueCount="3078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4974" uniqueCount="3341">
   <si>
     <t>INICIO</t>
   </si>
@@ -9270,6 +9270,795 @@
   </si>
   <si>
     <t>Marisol Ayala</t>
+  </si>
+  <si>
+    <t>SMART.224862</t>
+  </si>
+  <si>
+    <t>SMART.224863</t>
+  </si>
+  <si>
+    <t>SMART.224864</t>
+  </si>
+  <si>
+    <t>SMART.224865</t>
+  </si>
+  <si>
+    <t>SMART.224866</t>
+  </si>
+  <si>
+    <t>SMART.224867</t>
+  </si>
+  <si>
+    <t>SMART.224868</t>
+  </si>
+  <si>
+    <t>SMART.224869</t>
+  </si>
+  <si>
+    <t>SMART.224870</t>
+  </si>
+  <si>
+    <t>SMART.224871</t>
+  </si>
+  <si>
+    <t>SMART.224872</t>
+  </si>
+  <si>
+    <t>SMART.224873</t>
+  </si>
+  <si>
+    <t>SMART.224874</t>
+  </si>
+  <si>
+    <t>SMART.224875</t>
+  </si>
+  <si>
+    <t>SMART.224876</t>
+  </si>
+  <si>
+    <t>SMART.224877</t>
+  </si>
+  <si>
+    <t>SMART.224878</t>
+  </si>
+  <si>
+    <t>SMART.224879</t>
+  </si>
+  <si>
+    <t>SMART.224880</t>
+  </si>
+  <si>
+    <t>SMART.224881</t>
+  </si>
+  <si>
+    <t>SMART.224882</t>
+  </si>
+  <si>
+    <t>SMART.224883</t>
+  </si>
+  <si>
+    <t>SMART.224884</t>
+  </si>
+  <si>
+    <t>SMART.224885</t>
+  </si>
+  <si>
+    <t>SMART.224886</t>
+  </si>
+  <si>
+    <t>SMART.224887</t>
+  </si>
+  <si>
+    <t>SMART.224888</t>
+  </si>
+  <si>
+    <t>SMART.224889</t>
+  </si>
+  <si>
+    <t>SMART.224890</t>
+  </si>
+  <si>
+    <t>SMART.224891</t>
+  </si>
+  <si>
+    <t>SMART.224893</t>
+  </si>
+  <si>
+    <t>SMART.224894</t>
+  </si>
+  <si>
+    <t>SMART.224895</t>
+  </si>
+  <si>
+    <t>SMART.224896</t>
+  </si>
+  <si>
+    <t>SMART.224897</t>
+  </si>
+  <si>
+    <t>SMART.224898</t>
+  </si>
+  <si>
+    <t>SMART.224899</t>
+  </si>
+  <si>
+    <t>SMART.224900</t>
+  </si>
+  <si>
+    <t>SMART.224901</t>
+  </si>
+  <si>
+    <t>RE ETIQUETAR PARQUE</t>
+  </si>
+  <si>
+    <t>REVISION DE UPS SJC</t>
+  </si>
+  <si>
+    <t>Baja AMD de personal</t>
+  </si>
+  <si>
+    <t>Soporte envio de archivos pesados</t>
+  </si>
+  <si>
+    <t>Proceso de renovación de certificado IDSE</t>
+  </si>
+  <si>
+    <t>THYSSENKRUP ALTA EN PORTAL</t>
+  </si>
+  <si>
+    <t>Charraga, monica</t>
+  </si>
+  <si>
+    <t>SMART.224902</t>
+  </si>
+  <si>
+    <t>SMART.224903</t>
+  </si>
+  <si>
+    <t>SMART.224904</t>
+  </si>
+  <si>
+    <t>SMART.224905</t>
+  </si>
+  <si>
+    <t>SMART.224906</t>
+  </si>
+  <si>
+    <t>SMART.224907</t>
+  </si>
+  <si>
+    <t>SMART.224908</t>
+  </si>
+  <si>
+    <t>SMART.224909</t>
+  </si>
+  <si>
+    <t>SMART.224910</t>
+  </si>
+  <si>
+    <t>SMART.224911</t>
+  </si>
+  <si>
+    <t>SMART.224912</t>
+  </si>
+  <si>
+    <t>SMART.224913</t>
+  </si>
+  <si>
+    <t>SMART.224914</t>
+  </si>
+  <si>
+    <t>SMART.224915</t>
+  </si>
+  <si>
+    <t>SMART.224916</t>
+  </si>
+  <si>
+    <t>SMART.224917</t>
+  </si>
+  <si>
+    <t>SMART.224918</t>
+  </si>
+  <si>
+    <t>SMART.224919</t>
+  </si>
+  <si>
+    <t>SMART.224920</t>
+  </si>
+  <si>
+    <t>SMART.224921</t>
+  </si>
+  <si>
+    <t>SMART.224922</t>
+  </si>
+  <si>
+    <t>SMART.224923</t>
+  </si>
+  <si>
+    <t>SMART.224924</t>
+  </si>
+  <si>
+    <t>SMART.224925</t>
+  </si>
+  <si>
+    <t>SMART.224926</t>
+  </si>
+  <si>
+    <t>SMART.224927</t>
+  </si>
+  <si>
+    <t>SMART.224928</t>
+  </si>
+  <si>
+    <t>SMART.224929</t>
+  </si>
+  <si>
+    <t>SMART.224930</t>
+  </si>
+  <si>
+    <t>SMART.224931</t>
+  </si>
+  <si>
+    <t>SMART.224932</t>
+  </si>
+  <si>
+    <t>SMART.224933</t>
+  </si>
+  <si>
+    <t>SMART.224934</t>
+  </si>
+  <si>
+    <t>SMART.224935</t>
+  </si>
+  <si>
+    <t>SMART.224936</t>
+  </si>
+  <si>
+    <t>SMART.224937</t>
+  </si>
+  <si>
+    <t>SMART.224938</t>
+  </si>
+  <si>
+    <t>SMART.224939</t>
+  </si>
+  <si>
+    <t>SMART.224940</t>
+  </si>
+  <si>
+    <t>No me deja entrar a Quantum</t>
+  </si>
+  <si>
+    <t>Rangel Lopez, Macario Alejandro</t>
+  </si>
+  <si>
+    <t>Retenciones IVA e ISR / MONETA</t>
+  </si>
+  <si>
+    <t>solicitud de alta a Proxy de MoNETA</t>
+  </si>
+  <si>
+    <t>Brenda Garcilazo Gonzalez</t>
+  </si>
+  <si>
+    <t>Programado-Instalacion de memoria en ESXi</t>
+  </si>
+  <si>
+    <t>Solicitud de soporte para cambio numero telefónico en sistema Moneta</t>
+  </si>
+  <si>
+    <t>Ernesto Rosas</t>
+  </si>
+  <si>
+    <t>Instalación de Sistemas</t>
+  </si>
+  <si>
+    <t>permisos para generar requisiciones SAP</t>
+  </si>
+  <si>
+    <t>Listado de personal con 8ID (02.01.2026) - Información confidencial</t>
+  </si>
+  <si>
+    <t>Request to add Email address for AR-activitie</t>
+  </si>
+  <si>
+    <t>Isalas Lopez, Ulises Mariano</t>
+  </si>
+  <si>
+    <t>Solicitud- Instalación de Dock-Station</t>
+  </si>
+  <si>
+    <t>correo sospechoso</t>
+  </si>
+  <si>
+    <t>puertas de tarjetas desmagnetizadas</t>
+  </si>
+  <si>
+    <t>Apoyo con instalación de ejecutable</t>
+  </si>
+  <si>
+    <t>SAP Sin ingreso-Garcia Castillo</t>
+  </si>
+  <si>
+    <t>Solicitud de ticket para asignacion de audifonos para conferencias en lap top</t>
+  </si>
+  <si>
+    <t>Acceso Teams</t>
+  </si>
+  <si>
+    <t>ACTIVACION AUTHENTICATOR</t>
+  </si>
+  <si>
+    <t>Dinorah Montfort Teran</t>
+  </si>
+  <si>
+    <t>ESCANEO MENSUAL FEBRERO 26 INTERACT</t>
+  </si>
+  <si>
+    <t>ESCANEO MENSUAL FEBRERO 26 SIPROCCA</t>
+  </si>
+  <si>
+    <t>ESCANEO MENSUAL FEBRERO 26 RACON 1</t>
+  </si>
+  <si>
+    <t>ESCANEO MENSUAL FEBRERO 26 RACON 3</t>
+  </si>
+  <si>
+    <t>ESCANEO MENSUAL FEBRERO 26 TORAB</t>
+  </si>
+  <si>
+    <t>SMART.224941</t>
+  </si>
+  <si>
+    <t>SMART.224942</t>
+  </si>
+  <si>
+    <t>SMART.224943</t>
+  </si>
+  <si>
+    <t>SMART.224944</t>
+  </si>
+  <si>
+    <t>SMART.224945</t>
+  </si>
+  <si>
+    <t>SMART.224946</t>
+  </si>
+  <si>
+    <t>SMART.224947</t>
+  </si>
+  <si>
+    <t>SMART.224948</t>
+  </si>
+  <si>
+    <t>SMART.224950</t>
+  </si>
+  <si>
+    <t>SMART.224951</t>
+  </si>
+  <si>
+    <t>SMART.224953</t>
+  </si>
+  <si>
+    <t>SMART.224954</t>
+  </si>
+  <si>
+    <t>SMART.224955</t>
+  </si>
+  <si>
+    <t>SMART.224956</t>
+  </si>
+  <si>
+    <t>SMART.224957</t>
+  </si>
+  <si>
+    <t>SMART.224958</t>
+  </si>
+  <si>
+    <t>SMART.224959</t>
+  </si>
+  <si>
+    <t>SMART.224960</t>
+  </si>
+  <si>
+    <t>SMART.224961</t>
+  </si>
+  <si>
+    <t>SMART.224962</t>
+  </si>
+  <si>
+    <t>SMART.224963</t>
+  </si>
+  <si>
+    <t>SMART.224964</t>
+  </si>
+  <si>
+    <t>SMART.224965</t>
+  </si>
+  <si>
+    <t>SMART.224966</t>
+  </si>
+  <si>
+    <t>SMART.224967</t>
+  </si>
+  <si>
+    <t>SMART.224968</t>
+  </si>
+  <si>
+    <t>SMART.224969</t>
+  </si>
+  <si>
+    <t>SMART.224970</t>
+  </si>
+  <si>
+    <t>SMART.224971</t>
+  </si>
+  <si>
+    <t>SMART.224973</t>
+  </si>
+  <si>
+    <t>SMART.224974</t>
+  </si>
+  <si>
+    <t>SMART.224975</t>
+  </si>
+  <si>
+    <t>SMART.224976</t>
+  </si>
+  <si>
+    <t>SMART.224977</t>
+  </si>
+  <si>
+    <t>SMART.224978</t>
+  </si>
+  <si>
+    <t>SMART.224979</t>
+  </si>
+  <si>
+    <t>SMART.224980</t>
+  </si>
+  <si>
+    <t>SMART.224981</t>
+  </si>
+  <si>
+    <t>SMART.224982</t>
+  </si>
+  <si>
+    <t>SMART.224983</t>
+  </si>
+  <si>
+    <t>SMART.224984</t>
+  </si>
+  <si>
+    <t>SMART.224985</t>
+  </si>
+  <si>
+    <t>SMART.224986</t>
+  </si>
+  <si>
+    <t>SMART.224987</t>
+  </si>
+  <si>
+    <t>SMART.224988</t>
+  </si>
+  <si>
+    <t>SMART.224989</t>
+  </si>
+  <si>
+    <t>SMART.224990</t>
+  </si>
+  <si>
+    <t>SMART.224991</t>
+  </si>
+  <si>
+    <t>SMART.224992</t>
+  </si>
+  <si>
+    <t>SSC-AMD BAJA DE ANA PAULINA CHALTELL PEREZ</t>
+  </si>
+  <si>
+    <t>BAJA AMD - Eduardo Garcia</t>
+  </si>
+  <si>
+    <t>Correo Components</t>
+  </si>
+  <si>
+    <t>PR011852 MARIO ESTEBAN MANRIQUE ORDOÑEZ</t>
+  </si>
+  <si>
+    <t>Baja de Correo Electrónico</t>
+  </si>
+  <si>
+    <t>PROGRAMADO- Acceso Sheila PSJC</t>
+  </si>
+  <si>
+    <t>Email address change</t>
+  </si>
+  <si>
+    <t>Ingreso equipo de computo Oscar Linares Sindicato FENASA</t>
+  </si>
+  <si>
+    <t>Reinstalar equipos para RackLabels</t>
+  </si>
+  <si>
+    <t>SOLICITO LA INVITACION DE NUEVO PARA ACCEDER AL PORTAL</t>
+  </si>
+  <si>
+    <t>LAURA ROJAS ROSAS</t>
+  </si>
+  <si>
+    <t>PROGRAMADO-INSTALACION DE CAMARA</t>
+  </si>
+  <si>
+    <t>IT tips (mes de febrero 26 semana 2)</t>
+  </si>
+  <si>
+    <t>Problemas con Temas.</t>
+  </si>
+  <si>
+    <t>CARRILLO SANTIBAÑEZ, CLEMENTINO</t>
+  </si>
+  <si>
+    <t>Acceso MAST</t>
+  </si>
+  <si>
+    <t>Soporte archivo en RA250</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE ACCESO A PORTAL</t>
+  </si>
+  <si>
+    <t>Gorostieta Vazquez, Socorro</t>
+  </si>
+  <si>
+    <t>Solicitud de soporte para cambio de correo Moneta</t>
+  </si>
+  <si>
+    <t>Respaldo de información, banco de calibración a la red</t>
+  </si>
+  <si>
+    <t>Printout 4500031896 ALTA EN MONETA</t>
+  </si>
+  <si>
+    <t>JAN WEBER</t>
+  </si>
+  <si>
+    <t>ENVIO CORREO A PROVEEDORES PARA CARGA DE FACTURAS</t>
+  </si>
+  <si>
+    <t>ASAP-RETIRO DE TONER PPUE</t>
+  </si>
+  <si>
+    <t>ACTUALIZACION CONTACTOS PROVEEDORES TK 2026--UPDATE SUPPLIER CONTACTS TK 2026</t>
+  </si>
+  <si>
+    <t>Paulina Celis Ronquillo</t>
+  </si>
+  <si>
+    <t>CARGA DE FACTURAS EN MONETA GENERADORESAMABI</t>
+  </si>
+  <si>
+    <t>Israel López Fernández</t>
+  </si>
+  <si>
+    <t>CONEXION DE ATS/PDU SITE 1 Y 2 SJC</t>
+  </si>
+  <si>
+    <t>Acceso- AS-QAS-Quality</t>
+  </si>
+  <si>
+    <t>INGRESO DE EQUIPO DE CÓMPUTO PARA AUDITORÍA</t>
+  </si>
+  <si>
+    <t>UPDATE SUPPLIER CONTACTS TK 2026-ACCESO A PORTAL</t>
+  </si>
+  <si>
+    <t>IXTAB PEREZ ROMERO</t>
+  </si>
+  <si>
+    <t>Problemas con el Mouse.</t>
+  </si>
+  <si>
+    <t>Alta a Portal Moneta</t>
+  </si>
+  <si>
+    <t>Ernesto Eliud Olvares Verdejo</t>
+  </si>
+  <si>
+    <t>RECEPCION DE EQUIPO PPUE</t>
+  </si>
+  <si>
+    <t>PROGRAMACION PAGO//Thyssenkrupp Automotive Systems//HP</t>
+  </si>
+  <si>
+    <t>Etiquetar IPAD</t>
+  </si>
+  <si>
+    <t>RECEPCION y ENTREGA DE ACCESORIOS DIR FINANZAS</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE EMITIR SELLOS DIGITALES SAT//VUCEM//COMERCIO EXTERIOR</t>
+  </si>
+  <si>
+    <t>ASAP-SMTP on PLCS</t>
+  </si>
+  <si>
+    <t>Revision de Camaras</t>
+  </si>
+  <si>
+    <t>Acceso a Equipo de Cómputo de CENTJC</t>
+  </si>
+  <si>
+    <t>tia portal 17</t>
+  </si>
+  <si>
+    <t>NTP- NVR</t>
+  </si>
+  <si>
+    <t>INFORMACIÓN PARA SUBIR FACTURAS</t>
+  </si>
+  <si>
+    <t>Heriberto Perez</t>
+  </si>
+  <si>
+    <t>Error en posteo de la OC 4500031872</t>
+  </si>
+  <si>
+    <t>Error en posteo de factura de la OC 4500031906</t>
+  </si>
+  <si>
+    <t>Acceso a Carpetas Calidad y Material No Productivo</t>
+  </si>
+  <si>
+    <t>PROGRAMADO - Asigancion de líneas / teléfonos</t>
+  </si>
+  <si>
+    <t>Correos USER BATCH</t>
+  </si>
+  <si>
+    <t>REVISION DE TONNER (13-02-26)</t>
+  </si>
+  <si>
+    <t>Comunicado Remote Desktop</t>
+  </si>
+  <si>
+    <t>LIBERACIÓN DE FACTURA EN EL PORTAL</t>
+  </si>
+  <si>
+    <t>JOSELIN CEREZO CUELLAR</t>
+  </si>
+  <si>
+    <t>Asignación de celular - Ulises Islas</t>
+  </si>
+  <si>
+    <t>IT tips (mes de febrero 26 semana 3)</t>
+  </si>
+  <si>
+    <t>Error de Impresora</t>
+  </si>
+  <si>
+    <t>SAP error ME23N</t>
+  </si>
+  <si>
+    <t>Name change</t>
+  </si>
+  <si>
+    <t>Instalacion de App Microsoft Teams</t>
+  </si>
+  <si>
+    <t>ASAP - Santander</t>
+  </si>
+  <si>
+    <t>Accesso a Equipo Movil</t>
+  </si>
+  <si>
+    <t>Adquisición de móvil</t>
+  </si>
+  <si>
+    <t>sin acceso en teams en celular</t>
+  </si>
+  <si>
+    <t>Acceso al authenticator</t>
+  </si>
+  <si>
+    <t>Revisión de candados digitales</t>
+  </si>
+  <si>
+    <t>ENTREGA DE MOVIL A SOPORTE</t>
+  </si>
+  <si>
+    <t>ALTA PROVEEDOR   ERSA</t>
+  </si>
+  <si>
+    <t>CARGA DE FACTURAS EN MONETA</t>
+  </si>
+  <si>
+    <t>PCUNISERVICIOS</t>
+  </si>
+  <si>
+    <t>INGRESO EQUIPO DE COMPUTO LUNES 23 FEBRERO 8:00AM</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE ACCESO JUEVES 19 DE FEBRERO 2026//KRESTON BSG//PPUE</t>
+  </si>
+  <si>
+    <t>Soporte - Compartir Dibujos 3D .stp</t>
+  </si>
+  <si>
+    <t>UPS PPUE</t>
+  </si>
+  <si>
+    <t>UPS SJC</t>
+  </si>
+  <si>
+    <t>Problemas con acceso a Outlook y TEams desde Celular</t>
+  </si>
+  <si>
+    <t>IMC</t>
+  </si>
+  <si>
+    <t>actualziacion RVS PPUE</t>
+  </si>
+  <si>
+    <t>CAMBIO DE UPS SJC-ASAP</t>
+  </si>
+  <si>
+    <t>PROGRAMADO-ACTUALIZACION RVS PSJC</t>
+  </si>
+  <si>
+    <t>Ayuda configurar conexión celular</t>
+  </si>
+  <si>
+    <t>Acceso a Personal KPMG</t>
+  </si>
+  <si>
+    <t>ERROR EN CONTRASEÑA MONETA</t>
+  </si>
+  <si>
+    <t>Arturo Mendoza Fraga</t>
+  </si>
+  <si>
+    <t>KPMG ALTA MONETA</t>
+  </si>
+  <si>
+    <t>Tejeda, Gloria</t>
+  </si>
+  <si>
+    <t>error moneta//PO 4500031154// PR010021 BOSCH REXROT</t>
+  </si>
+  <si>
+    <t>otro error moneta//PO 4500031154// PR010021 BOSCH REXROT</t>
+  </si>
+  <si>
+    <t>RECEPCIÓN DE EQUIPO</t>
+  </si>
+  <si>
+    <t>taller tk automotive</t>
+  </si>
+  <si>
+    <t>Solicitud usuario IMS</t>
+  </si>
+  <si>
+    <t>PROVEEDOR PRO11832-1-ERROR DE CONTRASEÑA</t>
+  </si>
+  <si>
+    <t>MARY M</t>
+  </si>
+  <si>
+    <t>ACCESO DENEGADO SAP</t>
+  </si>
+  <si>
+    <t>CONECTAR PATCH CORD A SWITC</t>
+  </si>
+  <si>
+    <t>ENVIO DE IP-TIP DE ACTUALIZACION DE CELULAR</t>
+  </si>
+  <si>
+    <t>ERROR CARGA DE FACTURA POR SUBTOTAL INVALIDO</t>
+  </si>
+  <si>
+    <t>REVISION DE TONNER (20-02-26)</t>
   </si>
 </sst>
 </file>
@@ -10014,8 +10803,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9A8F2CF-541A-476B-BF4C-44E73144D477}" name="Table1" displayName="Table1" ref="A1:M1527" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:M1527" xr:uid="{F9A8F2CF-541A-476B-BF4C-44E73144D477}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9A8F2CF-541A-476B-BF4C-44E73144D477}" name="Table1" displayName="Table1" ref="A1:M1654" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:M1654" xr:uid="{F9A8F2CF-541A-476B-BF4C-44E73144D477}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1294:M1519">
     <sortCondition ref="B1:B1519"/>
   </sortState>
@@ -10367,10 +11156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A557BAA1-5C05-4C8D-9FC3-FF8259F03E7A}">
-  <dimension ref="A1:M1527"/>
+  <dimension ref="A1:M1654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="D1204" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J1217" sqref="J1217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -65263,7 +66052,7 @@
         <v>Dentro</v>
       </c>
       <c r="K1190" s="7" t="str">
-        <f t="shared" ref="K1190:K1216" si="95">IF(INT(A1190)=INT(F1190),"A tiempo", IF(A1190&lt;F1190,"Mismo día","Programados"))</f>
+        <f t="shared" ref="K1190:K1217" si="95">IF(INT(A1190)=INT(F1190),"A tiempo", IF(A1190&lt;F1190,"Mismo día","Programados"))</f>
         <v>Programados</v>
       </c>
       <c r="L1190" s="13">
@@ -66363,18 +67152,20 @@
         <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1214)</f>
         <v>45972</v>
       </c>
-      <c r="G1214" s="17"/>
+      <c r="G1214" s="17">
+        <v>46064</v>
+      </c>
       <c r="H1214" s="7">
         <f t="shared" si="91"/>
         <v>45</v>
       </c>
       <c r="I1214" s="7">
         <f t="shared" si="92"/>
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="J1214" s="7" t="str">
         <f t="shared" si="96"/>
-        <v>Acumulado</v>
+        <v>Fuera</v>
       </c>
       <c r="K1214" s="7" t="str">
         <f t="shared" si="95"/>
@@ -66515,8 +67306,9 @@
         <f t="shared" si="96"/>
         <v>Programado</v>
       </c>
-      <c r="K1217" s="7" t="s">
-        <v>2658</v>
+      <c r="K1217" s="7" t="str">
+        <f t="shared" si="95"/>
+        <v>Programados</v>
       </c>
       <c r="L1217" s="13">
         <v>45971</v>
@@ -70023,18 +70815,20 @@
         <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1293)</f>
         <v>45988.436805555553</v>
       </c>
-      <c r="G1293" s="11"/>
+      <c r="G1293" s="11">
+        <v>46073</v>
+      </c>
       <c r="H1293" s="7">
         <f t="shared" si="102"/>
         <v>48</v>
       </c>
       <c r="I1293" s="7">
         <f t="shared" si="103"/>
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="J1293" s="7" t="str">
         <f t="shared" si="101"/>
-        <v>Acumulado</v>
+        <v>Fuera</v>
       </c>
       <c r="K1293" s="7" t="str">
         <f t="shared" si="104"/>
@@ -77950,18 +78744,20 @@
         <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1464)</f>
         <v>46044</v>
       </c>
-      <c r="G1464" s="16"/>
+      <c r="G1464" s="16">
+        <v>46059</v>
+      </c>
       <c r="H1464" s="20">
         <f t="shared" si="116"/>
         <v>4</v>
       </c>
       <c r="I1464" s="20">
         <f t="shared" si="117"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J1464" s="20" t="str">
         <f t="shared" si="118"/>
-        <v>Acumulado</v>
+        <v>Fuera</v>
       </c>
       <c r="K1464" s="20" t="str">
         <f t="shared" si="119"/>
@@ -78087,18 +78883,20 @@
         <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1467)</f>
         <v>0</v>
       </c>
-      <c r="G1467" s="11"/>
+      <c r="G1467" s="11">
+        <v>46072</v>
+      </c>
       <c r="H1467" s="7">
         <f t="shared" si="116"/>
         <v>4</v>
       </c>
       <c r="I1467" s="7">
         <f t="shared" si="117"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J1467" s="7" t="str">
         <f t="shared" si="118"/>
-        <v>Acumulado</v>
+        <v>Programado</v>
       </c>
       <c r="K1467" s="7" t="str">
         <f t="shared" si="119"/>
@@ -78639,18 +79437,20 @@
         <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1479)</f>
         <v>0</v>
       </c>
-      <c r="G1479" s="11"/>
+      <c r="G1479" s="11">
+        <v>46069</v>
+      </c>
       <c r="H1479" s="7">
         <f t="shared" si="116"/>
         <v>4</v>
       </c>
       <c r="I1479" s="7">
         <f t="shared" si="117"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J1479" s="7" t="str">
         <f t="shared" si="118"/>
-        <v>Acumulado</v>
+        <v>Programado</v>
       </c>
       <c r="K1479" s="7" t="str">
         <f t="shared" si="119"/>
@@ -78870,18 +79670,20 @@
         <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1484)</f>
         <v>46048.341666666667</v>
       </c>
-      <c r="G1484" s="11"/>
+      <c r="G1484" s="11">
+        <v>46069</v>
+      </c>
       <c r="H1484" s="7">
         <f t="shared" si="116"/>
         <v>4</v>
       </c>
       <c r="I1484" s="7">
         <f t="shared" si="117"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J1484" s="7" t="str">
         <f t="shared" si="118"/>
-        <v>Acumulado</v>
+        <v>Fuera</v>
       </c>
       <c r="K1484" s="7" t="str">
         <f t="shared" si="119"/>
@@ -79477,18 +80279,20 @@
         <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1497)</f>
         <v>46049.417361111111</v>
       </c>
-      <c r="G1497" s="11"/>
+      <c r="G1497" s="11">
+        <v>46059</v>
+      </c>
       <c r="H1497" s="7">
         <f t="shared" si="121"/>
         <v>4</v>
       </c>
       <c r="I1497" s="7">
         <f t="shared" si="122"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J1497" s="7" t="str">
         <f t="shared" si="123"/>
-        <v>Acumulado</v>
+        <v>Fuera</v>
       </c>
       <c r="K1497" s="7" t="str">
         <f t="shared" si="124"/>
@@ -80076,18 +80880,20 @@
         <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1510)</f>
         <v>46051</v>
       </c>
-      <c r="G1510" s="11"/>
+      <c r="G1510" s="11">
+        <v>46063</v>
+      </c>
       <c r="H1510" s="7">
         <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="I1510" s="7">
         <f t="shared" si="122"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J1510" s="7" t="str">
         <f t="shared" si="123"/>
-        <v>Acumulado</v>
+        <v>Fuera</v>
       </c>
       <c r="K1510" s="7" t="str">
         <f t="shared" si="124"/>
@@ -80121,18 +80927,20 @@
         <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1511)</f>
         <v>46051</v>
       </c>
-      <c r="G1511" s="11"/>
+      <c r="G1511" s="11">
+        <v>46071</v>
+      </c>
       <c r="H1511" s="7">
         <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="I1511" s="7">
         <f t="shared" si="122"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J1511" s="7" t="str">
         <f t="shared" si="123"/>
-        <v>Acumulado</v>
+        <v>Fuera</v>
       </c>
       <c r="K1511" s="7" t="str">
         <f t="shared" si="124"/>
@@ -80305,18 +81113,20 @@
         <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1515)</f>
         <v>46052</v>
       </c>
-      <c r="G1515" s="11"/>
+      <c r="G1515" s="11">
+        <v>46071</v>
+      </c>
       <c r="H1515" s="7">
         <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="I1515" s="7">
         <f t="shared" si="122"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J1515" s="7" t="str">
         <f t="shared" si="123"/>
-        <v>Acumulado</v>
+        <v>Fuera</v>
       </c>
       <c r="K1515" s="7" t="str">
         <f t="shared" si="124"/>
@@ -80530,18 +81340,20 @@
         <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1520)</f>
         <v>0</v>
       </c>
-      <c r="G1520" s="16"/>
+      <c r="G1520" s="16">
+        <v>46059</v>
+      </c>
       <c r="H1520" s="20">
         <f>INT((A1520-DATE(YEAR(A1520),1,1))/7) + 1</f>
         <v>5</v>
       </c>
       <c r="I1520" s="20">
         <f>MAX(1,NETWORKDAYS(A1520,G1520,DATE(2025,11,17)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1520" s="20" t="str">
         <f>IF(G1520="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1520)),"ASAP",IF(I1520&lt;=7,"Dentro",IF(A1520&gt;F1520,"Programado","Fuera"))))</f>
-        <v>Acumulado</v>
+        <v>Dentro</v>
       </c>
       <c r="K1520" s="20" t="str">
         <f>IF(INT(A1520)=INT(F1520),"A tiempo", IF(A1520&lt;F1520,"Mismo día","Programados"))</f>
@@ -80669,18 +81481,20 @@
         <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1523)</f>
         <v>46056.411805555559</v>
       </c>
-      <c r="G1523" s="11"/>
+      <c r="G1523" s="11">
+        <v>46063</v>
+      </c>
       <c r="H1523" s="7">
         <f t="shared" si="126"/>
         <v>5</v>
       </c>
       <c r="I1523" s="7">
         <f t="shared" si="127"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J1523" s="7" t="str">
         <f t="shared" si="128"/>
-        <v>Acumulado</v>
+        <v>Dentro</v>
       </c>
       <c r="K1523" s="7" t="str">
         <f t="shared" si="129"/>
@@ -80879,6 +81693,5845 @@
       </c>
       <c r="M1527" s="22">
         <f t="shared" si="130"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1528" s="16">
+        <v>46056</v>
+      </c>
+      <c r="B1528" s="20" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C1528" s="20" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D1528" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="E1528" s="21"/>
+      <c r="F1528" s="16">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1528)</f>
+        <v>0</v>
+      </c>
+      <c r="G1528" s="16">
+        <v>46063</v>
+      </c>
+      <c r="H1528" s="20">
+        <f>INT((A1528-DATE(YEAR(A1528),1,1))/7) + 1</f>
+        <v>5</v>
+      </c>
+      <c r="I1528" s="20">
+        <f>MAX(1,NETWORKDAYS(A1528,G1528,DATE(2025,11,17)))</f>
+        <v>6</v>
+      </c>
+      <c r="J1528" s="20" t="str">
+        <f>IF(G1528="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1528)),"ASAP",IF(I1528&lt;=7,"Dentro",IF(A1528&gt;F1528,"Programado","Fuera"))))</f>
+        <v>Dentro</v>
+      </c>
+      <c r="K1528" s="20" t="str">
+        <f>IF(INT(A1528)=INT(F1528),"A tiempo", IF(A1528&lt;F1528,"Mismo día","Programados"))</f>
+        <v>Programados</v>
+      </c>
+      <c r="L1528" s="16">
+        <v>46056</v>
+      </c>
+      <c r="M1528" s="23">
+        <f>MAX(1,NETWORKDAYS(A1528,L1528))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1529" s="11">
+        <v>46056</v>
+      </c>
+      <c r="B1529" s="20" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C1529" s="7" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D1529" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1529" s="18"/>
+      <c r="F1529" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1529)</f>
+        <v>0</v>
+      </c>
+      <c r="G1529" s="11">
+        <v>46063</v>
+      </c>
+      <c r="H1529" s="7">
+        <f t="shared" ref="H1529:H1566" si="131">INT((A1529-DATE(YEAR(A1529),1,1))/7) + 1</f>
+        <v>5</v>
+      </c>
+      <c r="I1529" s="7">
+        <f t="shared" ref="I1529:I1566" si="132">MAX(1,NETWORKDAYS(A1529,G1529,DATE(2025,11,17)))</f>
+        <v>6</v>
+      </c>
+      <c r="J1529" s="7" t="str">
+        <f t="shared" ref="J1529:J1566" si="133">IF(G1529="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1529)),"ASAP",IF(I1529&lt;=7,"Dentro",IF(A1529&gt;F1529,"Programado","Fuera"))))</f>
+        <v>Dentro</v>
+      </c>
+      <c r="K1529" s="7" t="str">
+        <f t="shared" ref="K1529:K1566" si="134">IF(INT(A1529)=INT(F1529),"A tiempo", IF(A1529&lt;F1529,"Mismo día","Programados"))</f>
+        <v>Programados</v>
+      </c>
+      <c r="L1529" s="11">
+        <v>46056</v>
+      </c>
+      <c r="M1529" s="22">
+        <f t="shared" ref="M1529:M1566" si="135">MAX(1,NETWORKDAYS(A1529,L1529))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1530" s="11">
+        <v>46057</v>
+      </c>
+      <c r="B1530" s="20" t="s">
+        <v>3080</v>
+      </c>
+      <c r="C1530" s="7" t="s">
+        <v>3118</v>
+      </c>
+      <c r="D1530" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1530" s="18">
+        <v>46056.557638888888</v>
+      </c>
+      <c r="F1530" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1530)</f>
+        <v>46057</v>
+      </c>
+      <c r="G1530" s="11">
+        <v>46063</v>
+      </c>
+      <c r="H1530" s="7">
+        <f t="shared" si="131"/>
+        <v>5</v>
+      </c>
+      <c r="I1530" s="7">
+        <f t="shared" si="132"/>
+        <v>5</v>
+      </c>
+      <c r="J1530" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1530" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1530" s="11">
+        <v>46057</v>
+      </c>
+      <c r="M1530" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1531" s="11">
+        <v>46057</v>
+      </c>
+      <c r="B1531" s="20" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C1531" s="7" t="s">
+        <v>3119</v>
+      </c>
+      <c r="D1531" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1531" s="18">
+        <v>46056.473611111112</v>
+      </c>
+      <c r="F1531" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1531)</f>
+        <v>46057</v>
+      </c>
+      <c r="G1531" s="11"/>
+      <c r="H1531" s="7">
+        <f t="shared" si="131"/>
+        <v>5</v>
+      </c>
+      <c r="I1531" s="7">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+      <c r="J1531" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1531" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1531" s="11">
+        <v>46057</v>
+      </c>
+      <c r="M1531" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1532" s="11">
+        <v>46057</v>
+      </c>
+      <c r="B1532" s="20" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C1532" s="7" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D1532" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1532" s="18"/>
+      <c r="F1532" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1532)</f>
+        <v>0</v>
+      </c>
+      <c r="G1532" s="11">
+        <v>46057</v>
+      </c>
+      <c r="H1532" s="7">
+        <f t="shared" si="131"/>
+        <v>5</v>
+      </c>
+      <c r="I1532" s="7">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+      <c r="J1532" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1532" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1532" s="11">
+        <v>46057</v>
+      </c>
+      <c r="M1532" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1533" s="11">
+        <v>46057</v>
+      </c>
+      <c r="B1533" s="20" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C1533" s="7" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D1533" s="7" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E1533" s="18">
+        <v>46056.765277777777</v>
+      </c>
+      <c r="F1533" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1533)</f>
+        <v>46057</v>
+      </c>
+      <c r="G1533" s="11">
+        <v>46059</v>
+      </c>
+      <c r="H1533" s="7">
+        <f t="shared" si="131"/>
+        <v>5</v>
+      </c>
+      <c r="I1533" s="7">
+        <f t="shared" si="132"/>
+        <v>3</v>
+      </c>
+      <c r="J1533" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1533" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1533" s="11">
+        <v>46057</v>
+      </c>
+      <c r="M1533" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1534" s="11">
+        <v>46057</v>
+      </c>
+      <c r="B1534" s="20" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C1534" s="7" t="s">
+        <v>3122</v>
+      </c>
+      <c r="D1534" s="7" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E1534" s="18">
+        <v>46056.8125</v>
+      </c>
+      <c r="F1534" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1534)</f>
+        <v>46057</v>
+      </c>
+      <c r="G1534" s="11">
+        <v>46058</v>
+      </c>
+      <c r="H1534" s="7">
+        <f t="shared" si="131"/>
+        <v>5</v>
+      </c>
+      <c r="I1534" s="7">
+        <f t="shared" si="132"/>
+        <v>2</v>
+      </c>
+      <c r="J1534" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1534" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1534" s="11">
+        <v>46057</v>
+      </c>
+      <c r="M1534" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1535" s="11">
+        <v>46057</v>
+      </c>
+      <c r="B1535" s="20" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C1535" s="7" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D1535" s="7" t="s">
+        <v>3164</v>
+      </c>
+      <c r="E1535" s="18">
+        <v>46057.359722222223</v>
+      </c>
+      <c r="F1535" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1535)</f>
+        <v>46057.359722222223</v>
+      </c>
+      <c r="G1535" s="11">
+        <v>46065</v>
+      </c>
+      <c r="H1535" s="7">
+        <f t="shared" si="131"/>
+        <v>5</v>
+      </c>
+      <c r="I1535" s="7">
+        <f t="shared" si="132"/>
+        <v>7</v>
+      </c>
+      <c r="J1535" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1535" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1535" s="11">
+        <v>46057</v>
+      </c>
+      <c r="M1535" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1536" s="11">
+        <v>46057</v>
+      </c>
+      <c r="B1536" s="20" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C1536" s="7" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D1536" s="7" t="s">
+        <v>2995</v>
+      </c>
+      <c r="E1536" s="18">
+        <v>46057.363888888889</v>
+      </c>
+      <c r="F1536" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1536)</f>
+        <v>46057.363888888889</v>
+      </c>
+      <c r="G1536" s="11">
+        <v>46059</v>
+      </c>
+      <c r="H1536" s="7">
+        <f t="shared" si="131"/>
+        <v>5</v>
+      </c>
+      <c r="I1536" s="7">
+        <f t="shared" si="132"/>
+        <v>3</v>
+      </c>
+      <c r="J1536" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1536" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1536" s="11">
+        <v>46058</v>
+      </c>
+      <c r="M1536" s="22">
+        <f t="shared" si="135"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1537" s="11">
+        <v>46057</v>
+      </c>
+      <c r="B1537" s="20" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C1537" s="7" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D1537" s="7" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E1537" s="18">
+        <v>46057.423611111109</v>
+      </c>
+      <c r="F1537" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1537)</f>
+        <v>46057.423611111109</v>
+      </c>
+      <c r="G1537" s="11">
+        <v>46057</v>
+      </c>
+      <c r="H1537" s="7">
+        <f t="shared" si="131"/>
+        <v>5</v>
+      </c>
+      <c r="I1537" s="7">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+      <c r="J1537" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1537" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1537" s="11">
+        <v>46057</v>
+      </c>
+      <c r="M1537" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1538" s="11">
+        <v>46057</v>
+      </c>
+      <c r="B1538" s="20" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1538" s="7" t="s">
+        <v>3168</v>
+      </c>
+      <c r="D1538" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1538" s="18">
+        <v>46057.453472222223</v>
+      </c>
+      <c r="F1538" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1538)</f>
+        <v>46057.453472222223</v>
+      </c>
+      <c r="G1538" s="11">
+        <v>46065</v>
+      </c>
+      <c r="H1538" s="7">
+        <f t="shared" si="131"/>
+        <v>5</v>
+      </c>
+      <c r="I1538" s="7">
+        <f t="shared" si="132"/>
+        <v>7</v>
+      </c>
+      <c r="J1538" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1538" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1538" s="11">
+        <v>46059</v>
+      </c>
+      <c r="M1538" s="22">
+        <f t="shared" si="135"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1539" s="11">
+        <v>46057</v>
+      </c>
+      <c r="B1539" s="20" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C1539" s="7" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D1539" s="7" t="s">
+        <v>3170</v>
+      </c>
+      <c r="E1539" s="18">
+        <v>46057.645833333336</v>
+      </c>
+      <c r="F1539" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1539)</f>
+        <v>46058</v>
+      </c>
+      <c r="G1539" s="11">
+        <v>46059</v>
+      </c>
+      <c r="H1539" s="7">
+        <f t="shared" si="131"/>
+        <v>5</v>
+      </c>
+      <c r="I1539" s="7">
+        <f t="shared" si="132"/>
+        <v>3</v>
+      </c>
+      <c r="J1539" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1539" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>Mismo día</v>
+      </c>
+      <c r="L1539" s="11">
+        <v>46057</v>
+      </c>
+      <c r="M1539" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1540" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1540" s="20" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C1540" s="7" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D1540" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1540" s="18"/>
+      <c r="F1540" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1540)</f>
+        <v>0</v>
+      </c>
+      <c r="G1540" s="11">
+        <v>46071</v>
+      </c>
+      <c r="H1540" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1540" s="7">
+        <f t="shared" si="132"/>
+        <v>10</v>
+      </c>
+      <c r="J1540" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Programado</v>
+      </c>
+      <c r="K1540" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1540" s="11">
+        <v>46058</v>
+      </c>
+      <c r="M1540" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1541" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1541" s="20" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C1541" s="7" t="s">
+        <v>3172</v>
+      </c>
+      <c r="D1541" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E1541" s="18">
+        <v>46057.465277777781</v>
+      </c>
+      <c r="F1541" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1541)</f>
+        <v>46058</v>
+      </c>
+      <c r="G1541" s="11">
+        <v>46059</v>
+      </c>
+      <c r="H1541" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1541" s="7">
+        <f t="shared" si="132"/>
+        <v>2</v>
+      </c>
+      <c r="J1541" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1541" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1541" s="11">
+        <v>46058</v>
+      </c>
+      <c r="M1541" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1542" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1542" s="20" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C1542" s="7" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D1542" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1542" s="18">
+        <v>46057.570138888892</v>
+      </c>
+      <c r="F1542" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1542)</f>
+        <v>46058</v>
+      </c>
+      <c r="G1542" s="11">
+        <v>46071</v>
+      </c>
+      <c r="H1542" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1542" s="7">
+        <f t="shared" si="132"/>
+        <v>10</v>
+      </c>
+      <c r="J1542" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Fuera</v>
+      </c>
+      <c r="K1542" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1542" s="11">
+        <v>46058</v>
+      </c>
+      <c r="M1542" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1543" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1543" s="20" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C1543" s="7" t="s">
+        <v>3174</v>
+      </c>
+      <c r="D1543" s="7" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E1543" s="18">
+        <v>46057.584027777775</v>
+      </c>
+      <c r="F1543" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1543)</f>
+        <v>46058</v>
+      </c>
+      <c r="G1543" s="11">
+        <v>46059</v>
+      </c>
+      <c r="H1543" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1543" s="7">
+        <f t="shared" si="132"/>
+        <v>2</v>
+      </c>
+      <c r="J1543" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1543" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1543" s="11">
+        <v>46058</v>
+      </c>
+      <c r="M1543" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1544" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1544" s="20" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C1544" s="7" t="s">
+        <v>3176</v>
+      </c>
+      <c r="D1544" s="7" t="s">
+        <v>2982</v>
+      </c>
+      <c r="E1544" s="18">
+        <v>46057.624305555553</v>
+      </c>
+      <c r="F1544" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1544)</f>
+        <v>46058</v>
+      </c>
+      <c r="G1544" s="11">
+        <v>46063</v>
+      </c>
+      <c r="H1544" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1544" s="7">
+        <f t="shared" si="132"/>
+        <v>4</v>
+      </c>
+      <c r="J1544" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1544" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1544" s="11">
+        <v>46062</v>
+      </c>
+      <c r="M1544" s="22">
+        <f t="shared" si="135"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1545" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1545" s="20" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C1545" s="7" t="s">
+        <v>3177</v>
+      </c>
+      <c r="D1545" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1545" s="18">
+        <v>46057.643055555556</v>
+      </c>
+      <c r="F1545" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1545)</f>
+        <v>46058</v>
+      </c>
+      <c r="G1545" s="11">
+        <v>46059</v>
+      </c>
+      <c r="H1545" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1545" s="7">
+        <f t="shared" si="132"/>
+        <v>2</v>
+      </c>
+      <c r="J1545" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1545" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1545" s="11">
+        <v>46059</v>
+      </c>
+      <c r="M1545" s="22">
+        <f t="shared" si="135"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1546" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1546" s="20" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C1546" s="7" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D1546" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="E1546" s="18">
+        <v>46057.675694444442</v>
+      </c>
+      <c r="F1546" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1546)</f>
+        <v>46058</v>
+      </c>
+      <c r="G1546" s="11">
+        <v>46059</v>
+      </c>
+      <c r="H1546" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1546" s="7">
+        <f t="shared" si="132"/>
+        <v>2</v>
+      </c>
+      <c r="J1546" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1546" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1546" s="11">
+        <v>46057.675694444442</v>
+      </c>
+      <c r="M1546" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1547" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1547" s="20" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C1547" s="7" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D1547" s="7" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E1547" s="18">
+        <v>46057.724305555559</v>
+      </c>
+      <c r="F1547" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1547)</f>
+        <v>46058</v>
+      </c>
+      <c r="G1547" s="11">
+        <v>46063</v>
+      </c>
+      <c r="H1547" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1547" s="7">
+        <f t="shared" si="132"/>
+        <v>4</v>
+      </c>
+      <c r="J1547" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1547" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1547" s="11">
+        <v>46058</v>
+      </c>
+      <c r="M1547" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1548" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1548" s="20" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C1548" s="7" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D1548" s="7" t="s">
+        <v>3042</v>
+      </c>
+      <c r="E1548" s="18">
+        <v>46058.368055555555</v>
+      </c>
+      <c r="F1548" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1548)</f>
+        <v>46058.368055555555</v>
+      </c>
+      <c r="G1548" s="11">
+        <v>46059</v>
+      </c>
+      <c r="H1548" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1548" s="7">
+        <f t="shared" si="132"/>
+        <v>2</v>
+      </c>
+      <c r="J1548" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1548" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1548" s="11">
+        <v>46058</v>
+      </c>
+      <c r="M1548" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1549" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1549" s="20" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C1549" s="7" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D1549" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1549" s="18">
+        <v>46058.383333333331</v>
+      </c>
+      <c r="F1549" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1549)</f>
+        <v>46058.383333333331</v>
+      </c>
+      <c r="G1549" s="11"/>
+      <c r="H1549" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1549" s="7">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+      <c r="J1549" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1549" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1549" s="11">
+        <v>46059</v>
+      </c>
+      <c r="M1549" s="22">
+        <f t="shared" si="135"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1550" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1550" s="20" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C1550" s="7" t="s">
+        <v>3182</v>
+      </c>
+      <c r="D1550" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1550" s="18">
+        <v>46058.427083333336</v>
+      </c>
+      <c r="F1550" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1550)</f>
+        <v>46058.427083333336</v>
+      </c>
+      <c r="G1550" s="11">
+        <v>46059</v>
+      </c>
+      <c r="H1550" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1550" s="7">
+        <f t="shared" si="132"/>
+        <v>2</v>
+      </c>
+      <c r="J1550" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1550" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1550" s="11">
+        <v>46058</v>
+      </c>
+      <c r="M1550" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1551" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1551" s="20" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C1551" s="7" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D1551" s="7" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E1551" s="18">
+        <v>46058.473611111112</v>
+      </c>
+      <c r="F1551" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1551)</f>
+        <v>46059</v>
+      </c>
+      <c r="G1551" s="11">
+        <v>46059</v>
+      </c>
+      <c r="H1551" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1551" s="7">
+        <f t="shared" si="132"/>
+        <v>2</v>
+      </c>
+      <c r="J1551" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1551" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>Mismo día</v>
+      </c>
+      <c r="L1551" s="11">
+        <v>46058</v>
+      </c>
+      <c r="M1551" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1552" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1552" s="20" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C1552" s="7" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D1552" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1552" s="18"/>
+      <c r="F1552" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1552)</f>
+        <v>0</v>
+      </c>
+      <c r="G1552" s="11">
+        <v>46065</v>
+      </c>
+      <c r="H1552" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1552" s="7">
+        <f t="shared" si="132"/>
+        <v>6</v>
+      </c>
+      <c r="J1552" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1552" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1552" s="11">
+        <v>46058</v>
+      </c>
+      <c r="M1552" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1553" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1553" s="20" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C1553" s="7" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D1553" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1553" s="18"/>
+      <c r="F1553" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1553)</f>
+        <v>0</v>
+      </c>
+      <c r="G1553" s="11">
+        <v>46065</v>
+      </c>
+      <c r="H1553" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1553" s="7">
+        <f t="shared" si="132"/>
+        <v>6</v>
+      </c>
+      <c r="J1553" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1553" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1553" s="11">
+        <v>46058</v>
+      </c>
+      <c r="M1553" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1554" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1554" s="20" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C1554" s="7" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D1554" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1554" s="18"/>
+      <c r="F1554" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1554)</f>
+        <v>0</v>
+      </c>
+      <c r="G1554" s="11">
+        <v>46065</v>
+      </c>
+      <c r="H1554" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1554" s="7">
+        <f t="shared" si="132"/>
+        <v>6</v>
+      </c>
+      <c r="J1554" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1554" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1554" s="11">
+        <v>46058</v>
+      </c>
+      <c r="M1554" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1555" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1555" s="20" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C1555" s="7" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1555" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1555" s="18"/>
+      <c r="F1555" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1555)</f>
+        <v>0</v>
+      </c>
+      <c r="G1555" s="11">
+        <v>46065</v>
+      </c>
+      <c r="H1555" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1555" s="7">
+        <f t="shared" si="132"/>
+        <v>6</v>
+      </c>
+      <c r="J1555" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1555" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1555" s="11">
+        <v>46058</v>
+      </c>
+      <c r="M1555" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1556" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1556" s="20" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C1556" s="7" t="s">
+        <v>3189</v>
+      </c>
+      <c r="D1556" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1556" s="18"/>
+      <c r="F1556" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1556)</f>
+        <v>0</v>
+      </c>
+      <c r="G1556" s="11">
+        <v>46065</v>
+      </c>
+      <c r="H1556" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1556" s="7">
+        <f t="shared" si="132"/>
+        <v>6</v>
+      </c>
+      <c r="J1556" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1556" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1556" s="11">
+        <v>46058</v>
+      </c>
+      <c r="M1556" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1557" s="11">
+        <v>46058</v>
+      </c>
+      <c r="B1557" s="20" t="s">
+        <v>3107</v>
+      </c>
+      <c r="C1557" s="7" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D1557" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E1557" s="18"/>
+      <c r="F1557" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1557)</f>
+        <v>0</v>
+      </c>
+      <c r="G1557" s="11">
+        <v>46065</v>
+      </c>
+      <c r="H1557" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1557" s="7">
+        <f t="shared" si="132"/>
+        <v>6</v>
+      </c>
+      <c r="J1557" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1557" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1557" s="11">
+        <v>46058</v>
+      </c>
+      <c r="M1557" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1558" s="11">
+        <v>46059</v>
+      </c>
+      <c r="B1558" s="20" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C1558" s="7" t="s">
+        <v>3240</v>
+      </c>
+      <c r="D1558" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E1558" s="18">
+        <v>46058.465277777781</v>
+      </c>
+      <c r="F1558" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1558)</f>
+        <v>46059</v>
+      </c>
+      <c r="G1558" s="11"/>
+      <c r="H1558" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1558" s="7">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+      <c r="J1558" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1558" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1558" s="11">
+        <v>46059</v>
+      </c>
+      <c r="M1558" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1559" s="11">
+        <v>46059</v>
+      </c>
+      <c r="B1559" s="20" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C1559" s="7" t="s">
+        <v>3241</v>
+      </c>
+      <c r="D1559" s="7" t="s">
+        <v>3042</v>
+      </c>
+      <c r="E1559" s="18">
+        <v>46058.676388888889</v>
+      </c>
+      <c r="F1559" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1559)</f>
+        <v>46059</v>
+      </c>
+      <c r="G1559" s="11">
+        <v>46059</v>
+      </c>
+      <c r="H1559" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1559" s="7">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+      <c r="J1559" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1559" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1559" s="11">
+        <v>46059</v>
+      </c>
+      <c r="M1559" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1560" s="11">
+        <v>46059</v>
+      </c>
+      <c r="B1560" s="20" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C1560" s="7" t="s">
+        <v>3242</v>
+      </c>
+      <c r="D1560" s="7" t="s">
+        <v>3021</v>
+      </c>
+      <c r="E1560" s="18">
+        <v>46058.634722222225</v>
+      </c>
+      <c r="F1560" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1560)</f>
+        <v>46059</v>
+      </c>
+      <c r="G1560" s="11"/>
+      <c r="H1560" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1560" s="7">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+      <c r="J1560" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1560" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1560" s="11">
+        <v>46059</v>
+      </c>
+      <c r="M1560" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1561" s="11">
+        <v>46059</v>
+      </c>
+      <c r="B1561" s="20" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C1561" s="7" t="s">
+        <v>3243</v>
+      </c>
+      <c r="D1561" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1561" s="18">
+        <v>46058.697222222225</v>
+      </c>
+      <c r="F1561" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1561)</f>
+        <v>46059</v>
+      </c>
+      <c r="G1561" s="11"/>
+      <c r="H1561" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1561" s="7">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+      <c r="J1561" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1561" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1561" s="11">
+        <v>46059</v>
+      </c>
+      <c r="M1561" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1562" s="11">
+        <v>46059</v>
+      </c>
+      <c r="B1562" s="20" t="s">
+        <v>3112</v>
+      </c>
+      <c r="C1562" s="7" t="s">
+        <v>3244</v>
+      </c>
+      <c r="D1562" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1562" s="18"/>
+      <c r="F1562" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1562)</f>
+        <v>0</v>
+      </c>
+      <c r="G1562" s="11"/>
+      <c r="H1562" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1562" s="7">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+      <c r="J1562" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1562" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1562" s="11">
+        <v>46062</v>
+      </c>
+      <c r="M1562" s="22">
+        <f t="shared" si="135"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1563" s="11">
+        <v>46059</v>
+      </c>
+      <c r="B1563" s="20" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1563" s="7" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D1563" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1563" s="18">
+        <v>46058.732638888891</v>
+      </c>
+      <c r="F1563" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1563)</f>
+        <v>46059</v>
+      </c>
+      <c r="G1563" s="11">
+        <v>46070</v>
+      </c>
+      <c r="H1563" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1563" s="7">
+        <f t="shared" si="132"/>
+        <v>8</v>
+      </c>
+      <c r="J1563" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Fuera</v>
+      </c>
+      <c r="K1563" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1563" s="11">
+        <v>46059</v>
+      </c>
+      <c r="M1563" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1564" s="11">
+        <v>46059</v>
+      </c>
+      <c r="B1564" s="20" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C1564" s="7" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D1564" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1564" s="18">
+        <v>46059.384722222225</v>
+      </c>
+      <c r="F1564" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1564)</f>
+        <v>46059.384722222225</v>
+      </c>
+      <c r="G1564" s="11">
+        <v>46059</v>
+      </c>
+      <c r="H1564" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1564" s="7">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+      <c r="J1564" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1564" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1564" s="11">
+        <v>46059</v>
+      </c>
+      <c r="M1564" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1565" s="11">
+        <v>46059</v>
+      </c>
+      <c r="B1565" s="20" t="s">
+        <v>3115</v>
+      </c>
+      <c r="C1565" s="7" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D1565" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1565" s="18">
+        <v>46059.426388888889</v>
+      </c>
+      <c r="F1565" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1565)</f>
+        <v>46059.426388888889</v>
+      </c>
+      <c r="G1565" s="11">
+        <v>46064</v>
+      </c>
+      <c r="H1565" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1565" s="7">
+        <f t="shared" si="132"/>
+        <v>4</v>
+      </c>
+      <c r="J1565" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1565" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1565" s="11">
+        <v>46062</v>
+      </c>
+      <c r="M1565" s="22">
+        <f t="shared" si="135"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1566" s="11">
+        <v>46059</v>
+      </c>
+      <c r="B1566" s="20" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C1566" s="7" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D1566" s="7" t="s">
+        <v>3249</v>
+      </c>
+      <c r="E1566" s="18">
+        <v>46059.481249999997</v>
+      </c>
+      <c r="F1566" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1566)</f>
+        <v>46062</v>
+      </c>
+      <c r="G1566" s="11">
+        <v>46065</v>
+      </c>
+      <c r="H1566" s="7">
+        <f t="shared" si="131"/>
+        <v>6</v>
+      </c>
+      <c r="I1566" s="7">
+        <f t="shared" si="132"/>
+        <v>5</v>
+      </c>
+      <c r="J1566" s="7" t="str">
+        <f t="shared" si="133"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1566" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>Mismo día</v>
+      </c>
+      <c r="L1566" s="11">
+        <v>46059</v>
+      </c>
+      <c r="M1566" s="22">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1567" s="11">
+        <v>46059</v>
+      </c>
+      <c r="B1567" s="20" t="s">
+        <v>3124</v>
+      </c>
+      <c r="C1567" s="7" t="s">
+        <v>3250</v>
+      </c>
+      <c r="D1567" s="7" t="s">
+        <v>2787</v>
+      </c>
+      <c r="E1567" s="18"/>
+      <c r="F1567" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1567)</f>
+        <v>0</v>
+      </c>
+      <c r="G1567" s="11">
+        <v>46072</v>
+      </c>
+      <c r="H1567" s="7">
+        <f t="shared" ref="H1567:H1605" si="136">INT((A1567-DATE(YEAR(A1567),1,1))/7) + 1</f>
+        <v>6</v>
+      </c>
+      <c r="I1567" s="7">
+        <f t="shared" ref="I1567:I1605" si="137">MAX(1,NETWORKDAYS(A1567,G1567,DATE(2025,11,17)))</f>
+        <v>10</v>
+      </c>
+      <c r="J1567" s="7" t="str">
+        <f t="shared" ref="J1567:J1605" si="138">IF(G1567="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1567)),"ASAP",IF(I1567&lt;=7,"Dentro",IF(A1567&gt;F1567,"Programado","Fuera"))))</f>
+        <v>Programado</v>
+      </c>
+      <c r="K1567" s="7" t="str">
+        <f t="shared" ref="K1567:K1605" si="139">IF(INT(A1567)=INT(F1567),"A tiempo", IF(A1567&lt;F1567,"Mismo día","Programados"))</f>
+        <v>Programados</v>
+      </c>
+      <c r="L1567" s="11">
+        <v>46063</v>
+      </c>
+      <c r="M1567" s="22">
+        <f t="shared" ref="M1567:M1605" si="140">MAX(1,NETWORKDAYS(A1567,L1567))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1568" s="11">
+        <v>46062</v>
+      </c>
+      <c r="B1568" s="20" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C1568" s="7" t="s">
+        <v>3251</v>
+      </c>
+      <c r="D1568" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1568" s="18"/>
+      <c r="F1568" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1568)</f>
+        <v>0</v>
+      </c>
+      <c r="G1568" s="11">
+        <v>46066</v>
+      </c>
+      <c r="H1568" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1568" s="7">
+        <f t="shared" si="137"/>
+        <v>5</v>
+      </c>
+      <c r="J1568" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1568" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1568" s="11">
+        <v>46062</v>
+      </c>
+      <c r="M1568" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1569" s="11">
+        <v>46062</v>
+      </c>
+      <c r="B1569" s="20" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C1569" s="7" t="s">
+        <v>3252</v>
+      </c>
+      <c r="D1569" s="7" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E1569" s="18">
+        <v>46062.29583333333</v>
+      </c>
+      <c r="F1569" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1569)</f>
+        <v>46062.29583333333</v>
+      </c>
+      <c r="G1569" s="11">
+        <v>46073</v>
+      </c>
+      <c r="H1569" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1569" s="7">
+        <f t="shared" si="137"/>
+        <v>10</v>
+      </c>
+      <c r="J1569" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Fuera</v>
+      </c>
+      <c r="K1569" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1569" s="11">
+        <v>46062</v>
+      </c>
+      <c r="M1569" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1570" s="11">
+        <v>46062</v>
+      </c>
+      <c r="B1570" s="20" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C1570" s="7" t="s">
+        <v>3254</v>
+      </c>
+      <c r="D1570" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1570" s="18">
+        <v>46062.357638888891</v>
+      </c>
+      <c r="F1570" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1570)</f>
+        <v>46062.357638888891</v>
+      </c>
+      <c r="G1570" s="11">
+        <v>46063</v>
+      </c>
+      <c r="H1570" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1570" s="7">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+      <c r="J1570" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1570" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1570" s="11">
+        <v>46062</v>
+      </c>
+      <c r="M1570" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1571" s="11">
+        <v>46062</v>
+      </c>
+      <c r="B1571" s="20" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C1571" s="7" t="s">
+        <v>3255</v>
+      </c>
+      <c r="D1571" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1571" s="18">
+        <v>46062.42291666667</v>
+      </c>
+      <c r="F1571" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1571)</f>
+        <v>46062.42291666667</v>
+      </c>
+      <c r="G1571" s="11">
+        <v>46063</v>
+      </c>
+      <c r="H1571" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1571" s="7">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+      <c r="J1571" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1571" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1571" s="11">
+        <v>46062</v>
+      </c>
+      <c r="M1571" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1572" s="11">
+        <v>46062</v>
+      </c>
+      <c r="B1572" s="20" t="s">
+        <v>3129</v>
+      </c>
+      <c r="C1572" s="7" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D1572" s="7" t="s">
+        <v>3257</v>
+      </c>
+      <c r="E1572" s="18">
+        <v>46059.54791666667</v>
+      </c>
+      <c r="F1572" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1572)</f>
+        <v>46062</v>
+      </c>
+      <c r="G1572" s="11">
+        <v>46065</v>
+      </c>
+      <c r="H1572" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1572" s="7">
+        <f t="shared" si="137"/>
+        <v>4</v>
+      </c>
+      <c r="J1572" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1572" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1572" s="11">
+        <v>46062</v>
+      </c>
+      <c r="M1572" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1573" s="11">
+        <v>46062</v>
+      </c>
+      <c r="B1573" s="20" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C1573" s="7" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D1573" s="7" t="s">
+        <v>3170</v>
+      </c>
+      <c r="E1573" s="18">
+        <v>46059.572916666664</v>
+      </c>
+      <c r="F1573" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1573)</f>
+        <v>46062</v>
+      </c>
+      <c r="G1573" s="11">
+        <v>46073</v>
+      </c>
+      <c r="H1573" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1573" s="7">
+        <f t="shared" si="137"/>
+        <v>10</v>
+      </c>
+      <c r="J1573" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Fuera</v>
+      </c>
+      <c r="K1573" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1573" s="11">
+        <v>46062</v>
+      </c>
+      <c r="M1573" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1574" s="11">
+        <v>46063</v>
+      </c>
+      <c r="B1574" s="20" t="s">
+        <v>3131</v>
+      </c>
+      <c r="C1574" s="7" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D1574" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1574" s="18">
+        <v>46062.492361111108</v>
+      </c>
+      <c r="F1574" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1574)</f>
+        <v>46063</v>
+      </c>
+      <c r="G1574" s="11"/>
+      <c r="H1574" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1574" s="7">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="J1574" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1574" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1574" s="11">
+        <v>46063</v>
+      </c>
+      <c r="M1574" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1575" s="11">
+        <v>46063</v>
+      </c>
+      <c r="B1575" s="20" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C1575" s="7" t="s">
+        <v>3259</v>
+      </c>
+      <c r="D1575" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1575" s="18">
+        <v>46063.361111111109</v>
+      </c>
+      <c r="F1575" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1575)</f>
+        <v>46063.361111111109</v>
+      </c>
+      <c r="G1575" s="11"/>
+      <c r="H1575" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1575" s="7">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="J1575" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1575" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1575" s="11">
+        <v>46063</v>
+      </c>
+      <c r="M1575" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1576" s="11">
+        <v>46063</v>
+      </c>
+      <c r="B1576" s="20" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C1576" s="7" t="s">
+        <v>3260</v>
+      </c>
+      <c r="D1576" s="7" t="s">
+        <v>3261</v>
+      </c>
+      <c r="E1576" s="18">
+        <v>46063.361111111109</v>
+      </c>
+      <c r="F1576" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1576)</f>
+        <v>46063.361111111109</v>
+      </c>
+      <c r="G1576" s="11">
+        <v>46069</v>
+      </c>
+      <c r="H1576" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1576" s="7">
+        <f t="shared" si="137"/>
+        <v>5</v>
+      </c>
+      <c r="J1576" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1576" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1576" s="11">
+        <v>46063</v>
+      </c>
+      <c r="M1576" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1577" s="11">
+        <v>46063</v>
+      </c>
+      <c r="B1577" s="20" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C1577" s="7" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D1577" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1577" s="18"/>
+      <c r="F1577" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1577)</f>
+        <v>0</v>
+      </c>
+      <c r="G1577" s="11">
+        <v>46064</v>
+      </c>
+      <c r="H1577" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1577" s="7">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+      <c r="J1577" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1577" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1577" s="11">
+        <v>46063</v>
+      </c>
+      <c r="M1577" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1578" s="11">
+        <v>46063</v>
+      </c>
+      <c r="B1578" s="20" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C1578" s="7" t="s">
+        <v>3263</v>
+      </c>
+      <c r="D1578" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1578" s="18">
+        <v>46063.632638888892</v>
+      </c>
+      <c r="F1578" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1578)</f>
+        <v>46064</v>
+      </c>
+      <c r="G1578" s="11">
+        <v>46064</v>
+      </c>
+      <c r="H1578" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1578" s="7">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+      <c r="J1578" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>ASAP</v>
+      </c>
+      <c r="K1578" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>Mismo día</v>
+      </c>
+      <c r="L1578" s="11">
+        <v>46063</v>
+      </c>
+      <c r="M1578" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1579" s="11">
+        <v>46063</v>
+      </c>
+      <c r="B1579" s="20" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C1579" s="7" t="s">
+        <v>3264</v>
+      </c>
+      <c r="D1579" s="7" t="s">
+        <v>3265</v>
+      </c>
+      <c r="E1579" s="18">
+        <v>46063.609722222223</v>
+      </c>
+      <c r="F1579" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1579)</f>
+        <v>46064</v>
+      </c>
+      <c r="G1579" s="11">
+        <v>46071</v>
+      </c>
+      <c r="H1579" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1579" s="7">
+        <f t="shared" si="137"/>
+        <v>7</v>
+      </c>
+      <c r="J1579" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1579" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>Mismo día</v>
+      </c>
+      <c r="L1579" s="11">
+        <v>46063</v>
+      </c>
+      <c r="M1579" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1580" s="11">
+        <v>46063</v>
+      </c>
+      <c r="B1580" s="20" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C1580" s="7" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1580" s="7" t="s">
+        <v>3267</v>
+      </c>
+      <c r="E1580" s="18">
+        <v>46063.613194444442</v>
+      </c>
+      <c r="F1580" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1580)</f>
+        <v>46064</v>
+      </c>
+      <c r="G1580" s="11">
+        <v>46069</v>
+      </c>
+      <c r="H1580" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1580" s="7">
+        <f t="shared" si="137"/>
+        <v>5</v>
+      </c>
+      <c r="J1580" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1580" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>Mismo día</v>
+      </c>
+      <c r="L1580" s="11">
+        <v>46063</v>
+      </c>
+      <c r="M1580" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1581" s="11">
+        <v>46064</v>
+      </c>
+      <c r="B1581" s="20" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C1581" s="7" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D1581" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1581" s="18">
+        <v>46063.481944444444</v>
+      </c>
+      <c r="F1581" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1581)</f>
+        <v>46064</v>
+      </c>
+      <c r="G1581" s="11">
+        <v>46065</v>
+      </c>
+      <c r="H1581" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1581" s="7">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+      <c r="J1581" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1581" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1581" s="11">
+        <v>46064</v>
+      </c>
+      <c r="M1581" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1582" s="11">
+        <v>46064</v>
+      </c>
+      <c r="B1582" s="20" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C1582" s="7" t="s">
+        <v>3269</v>
+      </c>
+      <c r="D1582" s="7" t="s">
+        <v>2995</v>
+      </c>
+      <c r="E1582" s="18">
+        <v>46063.484722222223</v>
+      </c>
+      <c r="F1582" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1582)</f>
+        <v>46064</v>
+      </c>
+      <c r="G1582" s="11">
+        <v>46065</v>
+      </c>
+      <c r="H1582" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1582" s="7">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+      <c r="J1582" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1582" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1582" s="11">
+        <v>46064</v>
+      </c>
+      <c r="M1582" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1583" s="11">
+        <v>46064</v>
+      </c>
+      <c r="B1583" s="20" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C1583" s="7" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D1583" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="E1583" s="18">
+        <v>46063.768750000003</v>
+      </c>
+      <c r="F1583" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1583)</f>
+        <v>46064</v>
+      </c>
+      <c r="G1583" s="11">
+        <v>46069</v>
+      </c>
+      <c r="H1583" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1583" s="7">
+        <f t="shared" si="137"/>
+        <v>4</v>
+      </c>
+      <c r="J1583" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1583" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1583" s="11">
+        <v>46064</v>
+      </c>
+      <c r="M1583" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1584" s="11">
+        <v>46064</v>
+      </c>
+      <c r="B1584" s="20" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C1584" s="7" t="s">
+        <v>3271</v>
+      </c>
+      <c r="D1584" s="7" t="s">
+        <v>3272</v>
+      </c>
+      <c r="E1584" s="18">
+        <v>46064.309027777781</v>
+      </c>
+      <c r="F1584" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1584)</f>
+        <v>46064.309027777781</v>
+      </c>
+      <c r="G1584" s="11">
+        <v>46071</v>
+      </c>
+      <c r="H1584" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1584" s="7">
+        <f t="shared" si="137"/>
+        <v>6</v>
+      </c>
+      <c r="J1584" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1584" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1584" s="11">
+        <v>46064</v>
+      </c>
+      <c r="M1584" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1585" s="11">
+        <v>46064</v>
+      </c>
+      <c r="B1585" s="20" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C1585" s="7" t="s">
+        <v>3273</v>
+      </c>
+      <c r="D1585" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1585" s="18">
+        <v>46064.326388888891</v>
+      </c>
+      <c r="F1585" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1585)</f>
+        <v>46064.326388888891</v>
+      </c>
+      <c r="G1585" s="11">
+        <v>46065</v>
+      </c>
+      <c r="H1585" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1585" s="7">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+      <c r="J1585" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1585" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1585" s="11">
+        <v>46064</v>
+      </c>
+      <c r="M1585" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1586" s="11">
+        <v>46064</v>
+      </c>
+      <c r="B1586" s="20" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C1586" s="7" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D1586" s="7" t="s">
+        <v>3275</v>
+      </c>
+      <c r="E1586" s="18">
+        <v>46064.352777777778</v>
+      </c>
+      <c r="F1586" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1586)</f>
+        <v>46064.352777777778</v>
+      </c>
+      <c r="G1586" s="11">
+        <v>46069</v>
+      </c>
+      <c r="H1586" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1586" s="7">
+        <f t="shared" si="137"/>
+        <v>4</v>
+      </c>
+      <c r="J1586" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1586" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1586" s="11">
+        <v>46064</v>
+      </c>
+      <c r="M1586" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1587" s="11">
+        <v>46064</v>
+      </c>
+      <c r="B1587" s="20" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C1587" s="7" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D1587" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1587" s="18">
+        <v>46064.354166666664</v>
+      </c>
+      <c r="F1587" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1587)</f>
+        <v>46064.354166666664</v>
+      </c>
+      <c r="G1587" s="11">
+        <v>46070</v>
+      </c>
+      <c r="H1587" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1587" s="7">
+        <f t="shared" si="137"/>
+        <v>5</v>
+      </c>
+      <c r="J1587" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1587" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1587" s="11">
+        <v>46064</v>
+      </c>
+      <c r="M1587" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1588" s="11">
+        <v>46064</v>
+      </c>
+      <c r="B1588" s="20" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C1588" s="7" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D1588" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1588" s="18">
+        <v>46064.368055555555</v>
+      </c>
+      <c r="F1588" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1588)</f>
+        <v>46064.368055555555</v>
+      </c>
+      <c r="G1588" s="11">
+        <v>46071</v>
+      </c>
+      <c r="H1588" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1588" s="7">
+        <f t="shared" si="137"/>
+        <v>6</v>
+      </c>
+      <c r="J1588" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1588" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1588" s="11">
+        <v>46064</v>
+      </c>
+      <c r="M1588" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1589" s="11">
+        <v>46064</v>
+      </c>
+      <c r="B1589" s="20" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C1589" s="7" t="s">
+        <v>3278</v>
+      </c>
+      <c r="D1589" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1589" s="18"/>
+      <c r="F1589" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1589)</f>
+        <v>0</v>
+      </c>
+      <c r="G1589" s="11">
+        <v>46070</v>
+      </c>
+      <c r="H1589" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1589" s="7">
+        <f t="shared" si="137"/>
+        <v>5</v>
+      </c>
+      <c r="J1589" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1589" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1589" s="11">
+        <v>46064</v>
+      </c>
+      <c r="M1589" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1590" s="11">
+        <v>46064</v>
+      </c>
+      <c r="B1590" s="20" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C1590" s="7" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D1590" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1590" s="18"/>
+      <c r="F1590" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1590)</f>
+        <v>0</v>
+      </c>
+      <c r="G1590" s="11">
+        <v>46072</v>
+      </c>
+      <c r="H1590" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1590" s="7">
+        <f t="shared" si="137"/>
+        <v>7</v>
+      </c>
+      <c r="J1590" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1590" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1590" s="11">
+        <v>46065</v>
+      </c>
+      <c r="M1590" s="22">
+        <f t="shared" si="140"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1591" s="11">
+        <v>46064</v>
+      </c>
+      <c r="B1591" s="20" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C1591" s="7" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D1591" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1591" s="18">
+        <v>46064.456944444442</v>
+      </c>
+      <c r="F1591" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1591)</f>
+        <v>46064.456944444442</v>
+      </c>
+      <c r="G1591" s="11"/>
+      <c r="H1591" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1591" s="7">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="J1591" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1591" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1591" s="11">
+        <v>46064</v>
+      </c>
+      <c r="M1591" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1592" s="11">
+        <v>46064</v>
+      </c>
+      <c r="B1592" s="20" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C1592" s="7" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D1592" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1592" s="18">
+        <v>46064.611805555556</v>
+      </c>
+      <c r="F1592" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1592)</f>
+        <v>46065</v>
+      </c>
+      <c r="G1592" s="11">
+        <v>46065</v>
+      </c>
+      <c r="H1592" s="7">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
+      <c r="I1592" s="7">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+      <c r="J1592" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>ASAP</v>
+      </c>
+      <c r="K1592" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>Mismo día</v>
+      </c>
+      <c r="L1592" s="11">
+        <v>46064</v>
+      </c>
+      <c r="M1592" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1593" s="11">
+        <v>46065</v>
+      </c>
+      <c r="B1593" s="20" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C1593" s="7" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D1593" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1593" s="18">
+        <v>45699.541666666664</v>
+      </c>
+      <c r="F1593" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1593)</f>
+        <v>45700</v>
+      </c>
+      <c r="G1593" s="11"/>
+      <c r="H1593" s="7">
+        <f t="shared" si="136"/>
+        <v>7</v>
+      </c>
+      <c r="I1593" s="7">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="J1593" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1593" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1593" s="11">
+        <v>46065</v>
+      </c>
+      <c r="M1593" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1594" s="11">
+        <v>46065</v>
+      </c>
+      <c r="B1594" s="20" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C1594" s="7" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D1594" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="E1594" s="18">
+        <v>46064.601388888892</v>
+      </c>
+      <c r="F1594" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1594)</f>
+        <v>46065</v>
+      </c>
+      <c r="G1594" s="11">
+        <v>46066</v>
+      </c>
+      <c r="H1594" s="7">
+        <f t="shared" si="136"/>
+        <v>7</v>
+      </c>
+      <c r="I1594" s="7">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+      <c r="J1594" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1594" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1594" s="11">
+        <v>46065</v>
+      </c>
+      <c r="M1594" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1595" s="11">
+        <v>46065</v>
+      </c>
+      <c r="B1595" s="20" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C1595" s="7" t="s">
+        <v>3284</v>
+      </c>
+      <c r="D1595" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1595" s="18">
+        <v>46064.611805555556</v>
+      </c>
+      <c r="F1595" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1595)</f>
+        <v>46065</v>
+      </c>
+      <c r="G1595" s="11">
+        <v>46066</v>
+      </c>
+      <c r="H1595" s="7">
+        <f t="shared" si="136"/>
+        <v>7</v>
+      </c>
+      <c r="I1595" s="7">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+      <c r="J1595" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1595" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1595" s="11">
+        <v>46065</v>
+      </c>
+      <c r="M1595" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1596" s="11">
+        <v>46065</v>
+      </c>
+      <c r="B1596" s="20" t="s">
+        <v>3153</v>
+      </c>
+      <c r="C1596" s="7" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D1596" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1596" s="18">
+        <v>46064.621527777781</v>
+      </c>
+      <c r="F1596" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1596)</f>
+        <v>46065</v>
+      </c>
+      <c r="G1596" s="11"/>
+      <c r="H1596" s="7">
+        <f t="shared" si="136"/>
+        <v>7</v>
+      </c>
+      <c r="I1596" s="7">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="J1596" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1596" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1596" s="11">
+        <v>46065</v>
+      </c>
+      <c r="M1596" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1597" s="11">
+        <v>46065</v>
+      </c>
+      <c r="B1597" s="20" t="s">
+        <v>3154</v>
+      </c>
+      <c r="C1597" s="7" t="s">
+        <v>3286</v>
+      </c>
+      <c r="D1597" s="7" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E1597" s="18">
+        <v>46065.311805555553</v>
+      </c>
+      <c r="F1597" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1597)</f>
+        <v>46065.311805555553</v>
+      </c>
+      <c r="G1597" s="11">
+        <v>46065</v>
+      </c>
+      <c r="H1597" s="7">
+        <f t="shared" si="136"/>
+        <v>7</v>
+      </c>
+      <c r="I1597" s="7">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="J1597" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1597" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1597" s="11">
+        <v>46065</v>
+      </c>
+      <c r="M1597" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1598" s="11">
+        <v>46065</v>
+      </c>
+      <c r="B1598" s="20" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C1598" s="7" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D1598" s="7" t="s">
+        <v>2995</v>
+      </c>
+      <c r="E1598" s="18">
+        <v>46065.394444444442</v>
+      </c>
+      <c r="F1598" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1598)</f>
+        <v>46065.394444444442</v>
+      </c>
+      <c r="G1598" s="11">
+        <v>46066</v>
+      </c>
+      <c r="H1598" s="7">
+        <f>INT((A1598-DATE(YEAR(A1598),1,1))/7) + 1</f>
+        <v>7</v>
+      </c>
+      <c r="I1598" s="7">
+        <f>MAX(1,NETWORKDAYS(A1598,G1598,DATE(2025,11,17)))</f>
+        <v>2</v>
+      </c>
+      <c r="J1598" s="7" t="str">
+        <f>IF(G1598="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1598)),"ASAP",IF(I1598&lt;=7,"Dentro",IF(A1598&gt;F1598,"Programado","Fuera"))))</f>
+        <v>Dentro</v>
+      </c>
+      <c r="K1598" s="7" t="str">
+        <f>IF(INT(A1598)=INT(F1598),"A tiempo", IF(A1598&lt;F1598,"Mismo día","Programados"))</f>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1598" s="11">
+        <v>46066</v>
+      </c>
+      <c r="M1598" s="22">
+        <f>MAX(1,NETWORKDAYS(A1598,L1598))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1599" s="11">
+        <v>46065</v>
+      </c>
+      <c r="B1599" s="20" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C1599" s="7" t="s">
+        <v>3289</v>
+      </c>
+      <c r="D1599" s="7" t="s">
+        <v>3021</v>
+      </c>
+      <c r="E1599" s="18">
+        <v>46065.40625</v>
+      </c>
+      <c r="F1599" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1599)</f>
+        <v>46065.40625</v>
+      </c>
+      <c r="G1599" s="11">
+        <v>46066</v>
+      </c>
+      <c r="H1599" s="7">
+        <f t="shared" si="136"/>
+        <v>7</v>
+      </c>
+      <c r="I1599" s="7">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+      <c r="J1599" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1599" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1599" s="11">
+        <v>46066</v>
+      </c>
+      <c r="M1599" s="22">
+        <f>MAX(1,NETWORKDAYS(A1599,L1599))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1600" s="11">
+        <v>46066</v>
+      </c>
+      <c r="B1600" s="20" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C1600" s="7" t="s">
+        <v>3290</v>
+      </c>
+      <c r="D1600" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1600" s="18">
+        <v>46065.632638888892</v>
+      </c>
+      <c r="F1600" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1600)</f>
+        <v>46066</v>
+      </c>
+      <c r="G1600" s="11">
+        <v>46066</v>
+      </c>
+      <c r="H1600" s="7">
+        <f t="shared" si="136"/>
+        <v>7</v>
+      </c>
+      <c r="I1600" s="7">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="J1600" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1600" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1600" s="11">
+        <v>46066</v>
+      </c>
+      <c r="M1600" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1601" s="11">
+        <v>46066</v>
+      </c>
+      <c r="B1601" s="20" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C1601" s="7" t="s">
+        <v>3291</v>
+      </c>
+      <c r="D1601" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1601" s="18"/>
+      <c r="F1601" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1601)</f>
+        <v>0</v>
+      </c>
+      <c r="G1601" s="11"/>
+      <c r="H1601" s="7">
+        <f t="shared" si="136"/>
+        <v>7</v>
+      </c>
+      <c r="I1601" s="7">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="J1601" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1601" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1601" s="11">
+        <v>46066</v>
+      </c>
+      <c r="M1601" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1602" s="11">
+        <v>46066</v>
+      </c>
+      <c r="B1602" s="20" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1602" s="7" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D1602" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1602" s="18">
+        <v>46065.910416666666</v>
+      </c>
+      <c r="F1602" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1602)</f>
+        <v>46066</v>
+      </c>
+      <c r="G1602" s="11">
+        <v>46069</v>
+      </c>
+      <c r="H1602" s="7">
+        <f t="shared" si="136"/>
+        <v>7</v>
+      </c>
+      <c r="I1602" s="7">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+      <c r="J1602" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1602" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1602" s="11">
+        <v>46066</v>
+      </c>
+      <c r="M1602" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1603" s="11">
+        <v>46066</v>
+      </c>
+      <c r="B1603" s="20" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C1603" s="7" t="s">
+        <v>3293</v>
+      </c>
+      <c r="D1603" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E1603" s="18"/>
+      <c r="F1603" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1603)</f>
+        <v>0</v>
+      </c>
+      <c r="G1603" s="11"/>
+      <c r="H1603" s="7">
+        <f t="shared" si="136"/>
+        <v>7</v>
+      </c>
+      <c r="I1603" s="7">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="J1603" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1603" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1603" s="11">
+        <v>46066</v>
+      </c>
+      <c r="M1603" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1604" s="11">
+        <v>46066</v>
+      </c>
+      <c r="B1604" s="20" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C1604" s="7" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D1604" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1604" s="18"/>
+      <c r="F1604" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1604)</f>
+        <v>0</v>
+      </c>
+      <c r="G1604" s="11">
+        <v>46066</v>
+      </c>
+      <c r="H1604" s="7">
+        <f t="shared" si="136"/>
+        <v>7</v>
+      </c>
+      <c r="I1604" s="7">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="J1604" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1604" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1604" s="11">
+        <v>46066</v>
+      </c>
+      <c r="M1604" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1605" s="11">
+        <v>46066</v>
+      </c>
+      <c r="B1605" s="20" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C1605" s="7" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D1605" s="7" t="s">
+        <v>3296</v>
+      </c>
+      <c r="E1605" s="18">
+        <v>46066.438888888886</v>
+      </c>
+      <c r="F1605" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1605)</f>
+        <v>46066.438888888886</v>
+      </c>
+      <c r="G1605" s="11">
+        <v>46066</v>
+      </c>
+      <c r="H1605" s="7">
+        <f t="shared" si="136"/>
+        <v>7</v>
+      </c>
+      <c r="I1605" s="7">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="J1605" s="7" t="str">
+        <f t="shared" si="138"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1605" s="7" t="str">
+        <f t="shared" si="139"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1605" s="11">
+        <v>46066</v>
+      </c>
+      <c r="M1605" s="22">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1606" s="11">
+        <v>46066</v>
+      </c>
+      <c r="B1606" s="20" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C1606" s="7" t="s">
+        <v>3297</v>
+      </c>
+      <c r="D1606" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E1606" s="18">
+        <v>46066.554166666669</v>
+      </c>
+      <c r="F1606" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1606)</f>
+        <v>46069</v>
+      </c>
+      <c r="G1606" s="11"/>
+      <c r="H1606" s="7">
+        <f t="shared" ref="H1606:H1634" si="141">INT((A1606-DATE(YEAR(A1606),1,1))/7) + 1</f>
+        <v>7</v>
+      </c>
+      <c r="I1606" s="7">
+        <f t="shared" ref="I1606:I1634" si="142">MAX(1,NETWORKDAYS(A1606,G1606,DATE(2025,11,17)))</f>
+        <v>1</v>
+      </c>
+      <c r="J1606" s="7" t="str">
+        <f t="shared" ref="J1606:J1634" si="143">IF(G1606="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1606)),"ASAP",IF(I1606&lt;=7,"Dentro",IF(A1606&gt;F1606,"Programado","Fuera"))))</f>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1606" s="7" t="str">
+        <f t="shared" ref="K1606:K1634" si="144">IF(INT(A1606)=INT(F1606),"A tiempo", IF(A1606&lt;F1606,"Mismo día","Programados"))</f>
+        <v>Mismo día</v>
+      </c>
+      <c r="L1606" s="11">
+        <v>46066</v>
+      </c>
+      <c r="M1606" s="22">
+        <f t="shared" ref="M1606:M1634" si="145">MAX(1,NETWORKDAYS(A1606,L1606))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1607" s="11">
+        <v>46069</v>
+      </c>
+      <c r="B1607" s="20" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C1607" s="7" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D1607" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1607" s="18"/>
+      <c r="F1607" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1607)</f>
+        <v>0</v>
+      </c>
+      <c r="G1607" s="11">
+        <v>46073</v>
+      </c>
+      <c r="H1607" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1607" s="7">
+        <f t="shared" si="142"/>
+        <v>5</v>
+      </c>
+      <c r="J1607" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1607" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1607" s="11">
+        <v>46066</v>
+      </c>
+      <c r="M1607" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1608" s="11">
+        <v>46069</v>
+      </c>
+      <c r="B1608" s="20" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C1608" s="7" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D1608" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1608" s="18">
+        <v>46066.490972222222</v>
+      </c>
+      <c r="F1608" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1608)</f>
+        <v>46069</v>
+      </c>
+      <c r="G1608" s="11"/>
+      <c r="H1608" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1608" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1608" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1608" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1608" s="11">
+        <v>46069</v>
+      </c>
+      <c r="M1608" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1609" s="11">
+        <v>46069</v>
+      </c>
+      <c r="B1609" s="20" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C1609" s="7" t="s">
+        <v>3299</v>
+      </c>
+      <c r="D1609" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1609" s="18">
+        <v>46066.490972222222</v>
+      </c>
+      <c r="F1609" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1609)</f>
+        <v>46069</v>
+      </c>
+      <c r="G1609" s="11">
+        <v>46069</v>
+      </c>
+      <c r="H1609" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1609" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1609" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1609" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1609" s="11">
+        <v>46069</v>
+      </c>
+      <c r="M1609" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1610" s="11">
+        <v>46069</v>
+      </c>
+      <c r="B1610" s="20" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C1610" s="7" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D1610" s="7" t="s">
+        <v>3042</v>
+      </c>
+      <c r="E1610" s="18">
+        <v>46066.520833333336</v>
+      </c>
+      <c r="F1610" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1610)</f>
+        <v>46069</v>
+      </c>
+      <c r="G1610" s="11">
+        <v>46071</v>
+      </c>
+      <c r="H1610" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1610" s="7">
+        <f t="shared" si="142"/>
+        <v>3</v>
+      </c>
+      <c r="J1610" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1610" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1610" s="11">
+        <v>46069</v>
+      </c>
+      <c r="M1610" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1611" s="11">
+        <v>46069</v>
+      </c>
+      <c r="B1611" s="20" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C1611" s="7" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D1611" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1611" s="18">
+        <v>46066.585416666669</v>
+      </c>
+      <c r="F1611" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1611)</f>
+        <v>46069</v>
+      </c>
+      <c r="G1611" s="11">
+        <v>46069</v>
+      </c>
+      <c r="H1611" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1611" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1611" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1611" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1611" s="11">
+        <v>46069</v>
+      </c>
+      <c r="M1611" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1612" s="11">
+        <v>46069</v>
+      </c>
+      <c r="B1612" s="20" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C1612" s="7" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D1612" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1612" s="18">
+        <v>46066.613888888889</v>
+      </c>
+      <c r="F1612" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1612)</f>
+        <v>46069</v>
+      </c>
+      <c r="G1612" s="11">
+        <v>46069</v>
+      </c>
+      <c r="H1612" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1612" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1612" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1612" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1612" s="11">
+        <v>46069</v>
+      </c>
+      <c r="M1612" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1613" s="11">
+        <v>46069</v>
+      </c>
+      <c r="B1613" s="20" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C1613" s="7" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D1613" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1613" s="18">
+        <v>46069.337500000001</v>
+      </c>
+      <c r="F1613" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1613)</f>
+        <v>46069.337500000001</v>
+      </c>
+      <c r="G1613" s="11"/>
+      <c r="H1613" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1613" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1613" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1613" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1613" s="11">
+        <v>46069</v>
+      </c>
+      <c r="M1613" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1614" s="11">
+        <v>46069</v>
+      </c>
+      <c r="B1614" s="20" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C1614" s="7" t="s">
+        <v>3302</v>
+      </c>
+      <c r="D1614" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1614" s="18">
+        <v>46069.386111111111</v>
+      </c>
+      <c r="F1614" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1614)</f>
+        <v>46069.386111111111</v>
+      </c>
+      <c r="G1614" s="11"/>
+      <c r="H1614" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1614" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1614" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1614" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1614" s="11">
+        <v>46069</v>
+      </c>
+      <c r="M1614" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1615" s="11">
+        <v>46069</v>
+      </c>
+      <c r="B1615" s="20" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C1615" s="7" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D1615" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1615" s="18"/>
+      <c r="F1615" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1615)</f>
+        <v>0</v>
+      </c>
+      <c r="G1615" s="11"/>
+      <c r="H1615" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1615" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1615" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1615" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1615" s="11">
+        <v>46069</v>
+      </c>
+      <c r="M1615" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1616" s="11">
+        <v>46069</v>
+      </c>
+      <c r="B1616" s="20" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C1616" s="7" t="s">
+        <v>3304</v>
+      </c>
+      <c r="D1616" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="E1616" s="18">
+        <v>46069.443055555559</v>
+      </c>
+      <c r="F1616" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1616)</f>
+        <v>46069.443055555559</v>
+      </c>
+      <c r="G1616" s="11">
+        <v>46071</v>
+      </c>
+      <c r="H1616" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1616" s="7">
+        <f t="shared" si="142"/>
+        <v>3</v>
+      </c>
+      <c r="J1616" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1616" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1616" s="11">
+        <v>46069</v>
+      </c>
+      <c r="M1616" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1617" s="11">
+        <v>46069</v>
+      </c>
+      <c r="B1617" s="20" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C1617" s="7" t="s">
+        <v>3255</v>
+      </c>
+      <c r="D1617" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1617" s="18">
+        <v>46069.462500000001</v>
+      </c>
+      <c r="F1617" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1617)</f>
+        <v>46070</v>
+      </c>
+      <c r="G1617" s="11">
+        <v>46070</v>
+      </c>
+      <c r="H1617" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1617" s="7">
+        <f t="shared" si="142"/>
+        <v>2</v>
+      </c>
+      <c r="J1617" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1617" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>Mismo día</v>
+      </c>
+      <c r="L1617" s="11">
+        <v>46070</v>
+      </c>
+      <c r="M1617" s="22">
+        <f t="shared" si="145"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1618" s="11">
+        <v>46069</v>
+      </c>
+      <c r="B1618" s="20" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C1618" s="7" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D1618" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E1618" s="18"/>
+      <c r="F1618" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1618)</f>
+        <v>0</v>
+      </c>
+      <c r="G1618" s="11"/>
+      <c r="H1618" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1618" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1618" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1618" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1618" s="11">
+        <v>46069</v>
+      </c>
+      <c r="M1618" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1619" s="11">
+        <v>46070</v>
+      </c>
+      <c r="B1619" s="20" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C1619" s="7" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D1619" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1619" s="18">
+        <v>46069.95416666667</v>
+      </c>
+      <c r="F1619" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1619)</f>
+        <v>46070</v>
+      </c>
+      <c r="G1619" s="11">
+        <v>46070</v>
+      </c>
+      <c r="H1619" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1619" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1619" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1619" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1619" s="11">
+        <v>46070</v>
+      </c>
+      <c r="M1619" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1620" s="11">
+        <v>46070</v>
+      </c>
+      <c r="B1620" s="20" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C1620" s="7" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D1620" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1620" s="18">
+        <v>46070.006249999999</v>
+      </c>
+      <c r="F1620" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1620)</f>
+        <v>46070.006249999999</v>
+      </c>
+      <c r="G1620" s="11">
+        <v>46076</v>
+      </c>
+      <c r="H1620" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1620" s="7">
+        <f t="shared" si="142"/>
+        <v>5</v>
+      </c>
+      <c r="J1620" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1620" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1620" s="11">
+        <v>46070</v>
+      </c>
+      <c r="M1620" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1621" s="11">
+        <v>46070</v>
+      </c>
+      <c r="B1621" s="20" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C1621" s="7" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D1621" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1621" s="18"/>
+      <c r="F1621" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1621)</f>
+        <v>0</v>
+      </c>
+      <c r="G1621" s="11"/>
+      <c r="H1621" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1621" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1621" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1621" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1621" s="11">
+        <v>46071</v>
+      </c>
+      <c r="M1621" s="22">
+        <f t="shared" si="145"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1622" s="11">
+        <v>46070</v>
+      </c>
+      <c r="B1622" s="20" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C1622" s="7" t="s">
+        <v>3309</v>
+      </c>
+      <c r="D1622" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1622" s="18">
+        <v>46070.336805555555</v>
+      </c>
+      <c r="F1622" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1622)</f>
+        <v>46070.336805555555</v>
+      </c>
+      <c r="G1622" s="11">
+        <v>46071</v>
+      </c>
+      <c r="H1622" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1622" s="7">
+        <f t="shared" si="142"/>
+        <v>2</v>
+      </c>
+      <c r="J1622" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1622" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1622" s="11">
+        <v>46070</v>
+      </c>
+      <c r="M1622" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1623" s="11">
+        <v>46070</v>
+      </c>
+      <c r="B1623" s="20" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C1623" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D1623" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1623" s="18">
+        <v>46070.397916666669</v>
+      </c>
+      <c r="F1623" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1623)</f>
+        <v>46070.397916666669</v>
+      </c>
+      <c r="G1623" s="11"/>
+      <c r="H1623" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1623" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1623" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1623" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1623" s="11">
+        <v>46070</v>
+      </c>
+      <c r="M1623" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1624" s="11">
+        <v>46070</v>
+      </c>
+      <c r="B1624" s="20" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C1624" s="7" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D1624" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1624" s="18">
+        <v>46070.423611111109</v>
+      </c>
+      <c r="F1624" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1624)</f>
+        <v>46070.423611111109</v>
+      </c>
+      <c r="G1624" s="11"/>
+      <c r="H1624" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1624" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1624" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1624" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1624" s="11">
+        <v>46070</v>
+      </c>
+      <c r="M1624" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1625" s="11">
+        <v>46070</v>
+      </c>
+      <c r="B1625" s="20" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C1625" s="7" t="s">
+        <v>3310</v>
+      </c>
+      <c r="D1625" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1625" s="18">
+        <v>46070.609722222223</v>
+      </c>
+      <c r="F1625" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1625)</f>
+        <v>46071</v>
+      </c>
+      <c r="G1625" s="11"/>
+      <c r="H1625" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1625" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1625" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1625" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>Mismo día</v>
+      </c>
+      <c r="L1625" s="11">
+        <v>46070</v>
+      </c>
+      <c r="M1625" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1626" s="11">
+        <v>46070</v>
+      </c>
+      <c r="B1626" s="20" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C1626" s="7" t="s">
+        <v>3311</v>
+      </c>
+      <c r="D1626" s="7" t="s">
+        <v>3312</v>
+      </c>
+      <c r="E1626" s="18">
+        <v>46070.65</v>
+      </c>
+      <c r="F1626" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1626)</f>
+        <v>46071</v>
+      </c>
+      <c r="G1626" s="11">
+        <v>46071</v>
+      </c>
+      <c r="H1626" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1626" s="7">
+        <f t="shared" si="142"/>
+        <v>2</v>
+      </c>
+      <c r="J1626" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1626" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>Mismo día</v>
+      </c>
+      <c r="L1626" s="11">
+        <v>46070</v>
+      </c>
+      <c r="M1626" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1627" s="11">
+        <v>46071</v>
+      </c>
+      <c r="B1627" s="20" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C1627" s="7" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D1627" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1627" s="18">
+        <v>46070.5</v>
+      </c>
+      <c r="F1627" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1627)</f>
+        <v>46071</v>
+      </c>
+      <c r="G1627" s="11">
+        <v>46071</v>
+      </c>
+      <c r="H1627" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1627" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1627" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1627" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1627" s="11">
+        <v>46071</v>
+      </c>
+      <c r="M1627" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1628" s="11">
+        <v>46071</v>
+      </c>
+      <c r="B1628" s="20" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C1628" s="7" t="s">
+        <v>3314</v>
+      </c>
+      <c r="D1628" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1628" s="18">
+        <v>46070.50277777778</v>
+      </c>
+      <c r="F1628" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1628)</f>
+        <v>46071</v>
+      </c>
+      <c r="G1628" s="11">
+        <v>46071</v>
+      </c>
+      <c r="H1628" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1628" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1628" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1628" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1628" s="11">
+        <v>46071</v>
+      </c>
+      <c r="M1628" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1629" s="11">
+        <v>46071</v>
+      </c>
+      <c r="B1629" s="20" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C1629" s="7" t="s">
+        <v>3315</v>
+      </c>
+      <c r="D1629" s="7" t="s">
+        <v>2982</v>
+      </c>
+      <c r="E1629" s="18">
+        <v>46070.538194444445</v>
+      </c>
+      <c r="F1629" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1629)</f>
+        <v>46071</v>
+      </c>
+      <c r="G1629" s="11">
+        <v>46071</v>
+      </c>
+      <c r="H1629" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1629" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1629" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1629" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1629" s="11">
+        <v>46071</v>
+      </c>
+      <c r="M1629" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1630" s="11">
+        <v>46071</v>
+      </c>
+      <c r="B1630" s="20" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C1630" s="7" t="s">
+        <v>3316</v>
+      </c>
+      <c r="D1630" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1630" s="18">
+        <v>46070.604861111111</v>
+      </c>
+      <c r="F1630" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1630)</f>
+        <v>46071</v>
+      </c>
+      <c r="G1630" s="11">
+        <v>46073</v>
+      </c>
+      <c r="H1630" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1630" s="7">
+        <f t="shared" si="142"/>
+        <v>3</v>
+      </c>
+      <c r="J1630" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1630" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1630" s="11">
+        <v>46071</v>
+      </c>
+      <c r="M1630" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1631" s="11">
+        <v>46071</v>
+      </c>
+      <c r="B1631" s="20" t="s">
+        <v>3215</v>
+      </c>
+      <c r="C1631" s="7" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D1631" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1631" s="18">
+        <v>46070.605555555558</v>
+      </c>
+      <c r="F1631" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1631)</f>
+        <v>46071</v>
+      </c>
+      <c r="G1631" s="11"/>
+      <c r="H1631" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1631" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1631" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1631" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1631" s="11">
+        <v>46071</v>
+      </c>
+      <c r="M1631" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1632" s="11">
+        <v>46071</v>
+      </c>
+      <c r="B1632" s="20" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C1632" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1632" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1632" s="18">
+        <v>46070.611111111109</v>
+      </c>
+      <c r="F1632" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1632)</f>
+        <v>46071</v>
+      </c>
+      <c r="G1632" s="11">
+        <v>46072</v>
+      </c>
+      <c r="H1632" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1632" s="7">
+        <f t="shared" si="142"/>
+        <v>2</v>
+      </c>
+      <c r="J1632" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1632" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1632" s="11">
+        <v>46071</v>
+      </c>
+      <c r="M1632" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1633" s="11">
+        <v>46071</v>
+      </c>
+      <c r="B1633" s="20" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C1633" s="7" t="s">
+        <v>3318</v>
+      </c>
+      <c r="D1633" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1633" s="18">
+        <v>46071.357638888891</v>
+      </c>
+      <c r="F1633" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1633)</f>
+        <v>46071.357638888891</v>
+      </c>
+      <c r="G1633" s="11">
+        <v>46072</v>
+      </c>
+      <c r="H1633" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1633" s="7">
+        <f t="shared" si="142"/>
+        <v>2</v>
+      </c>
+      <c r="J1633" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1633" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1633" s="11">
+        <v>46071</v>
+      </c>
+      <c r="M1633" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1634" s="11">
+        <v>46071</v>
+      </c>
+      <c r="B1634" s="20" t="s">
+        <v>3218</v>
+      </c>
+      <c r="C1634" s="7" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D1634" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1634" s="18">
+        <v>46071.368055555555</v>
+      </c>
+      <c r="F1634" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1634)</f>
+        <v>46071.368055555555</v>
+      </c>
+      <c r="G1634" s="11"/>
+      <c r="H1634" s="7">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="I1634" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J1634" s="7" t="str">
+        <f t="shared" si="143"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1634" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1634" s="11">
+        <v>46071</v>
+      </c>
+      <c r="M1634" s="22">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1635" s="11">
+        <v>46071</v>
+      </c>
+      <c r="B1635" s="20" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C1635" s="7" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D1635" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1635" s="18">
+        <v>46071.502083333333</v>
+      </c>
+      <c r="F1635" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1635)</f>
+        <v>46072</v>
+      </c>
+      <c r="G1635" s="11">
+        <v>46072</v>
+      </c>
+      <c r="H1635" s="7">
+        <f t="shared" ref="H1635:H1654" si="146">INT((A1635-DATE(YEAR(A1635),1,1))/7) + 1</f>
+        <v>7</v>
+      </c>
+      <c r="I1635" s="7">
+        <f t="shared" ref="I1635:I1654" si="147">MAX(1,NETWORKDAYS(A1635,G1635,DATE(2025,11,17)))</f>
+        <v>2</v>
+      </c>
+      <c r="J1635" s="7" t="str">
+        <f t="shared" ref="J1635:J1654" si="148">IF(G1635="","Acumulado",IF(ISNUMBER(SEARCH("ASAP",C1635)),"ASAP",IF(I1635&lt;=7,"Dentro",IF(A1635&gt;F1635,"Programado","Fuera"))))</f>
+        <v>ASAP</v>
+      </c>
+      <c r="K1635" s="7" t="str">
+        <f t="shared" ref="K1635:K1654" si="149">IF(INT(A1635)=INT(F1635),"A tiempo", IF(A1635&lt;F1635,"Mismo día","Programados"))</f>
+        <v>Mismo día</v>
+      </c>
+      <c r="L1635" s="11">
+        <v>46072</v>
+      </c>
+      <c r="M1635" s="22">
+        <f t="shared" ref="M1635:M1654" si="150">MAX(1,NETWORKDAYS(A1635,L1635))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1636" s="11">
+        <v>46072</v>
+      </c>
+      <c r="B1636" s="20" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C1636" s="7" t="s">
+        <v>3320</v>
+      </c>
+      <c r="D1636" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1636" s="18">
+        <v>46071.640972222223</v>
+      </c>
+      <c r="F1636" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1636)</f>
+        <v>46072</v>
+      </c>
+      <c r="G1636" s="11"/>
+      <c r="H1636" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1636" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="J1636" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1636" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1636" s="11">
+        <v>46072</v>
+      </c>
+      <c r="M1636" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1637" s="11">
+        <v>46072</v>
+      </c>
+      <c r="B1637" s="20" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1637" s="7" t="s">
+        <v>3322</v>
+      </c>
+      <c r="D1637" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1637" s="18"/>
+      <c r="F1637" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1637)</f>
+        <v>0</v>
+      </c>
+      <c r="G1637" s="11"/>
+      <c r="H1637" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1637" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="J1637" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1637" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1637" s="11">
+        <v>46073</v>
+      </c>
+      <c r="M1637" s="22">
+        <f t="shared" si="150"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1638" s="11">
+        <v>46072</v>
+      </c>
+      <c r="B1638" s="20" t="s">
+        <v>3222</v>
+      </c>
+      <c r="C1638" s="7" t="s">
+        <v>3323</v>
+      </c>
+      <c r="D1638" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E1638" s="18">
+        <v>46072</v>
+      </c>
+      <c r="F1638" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1638)</f>
+        <v>46072</v>
+      </c>
+      <c r="G1638" s="11">
+        <v>46076</v>
+      </c>
+      <c r="H1638" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1638" s="7">
+        <f t="shared" si="147"/>
+        <v>3</v>
+      </c>
+      <c r="J1638" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1638" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1638" s="11">
+        <v>46072</v>
+      </c>
+      <c r="M1638" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1639" s="11">
+        <v>46072</v>
+      </c>
+      <c r="B1639" s="20" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C1639" s="7" t="s">
+        <v>3324</v>
+      </c>
+      <c r="D1639" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1639" s="18">
+        <v>46072.388888888891</v>
+      </c>
+      <c r="F1639" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1639)</f>
+        <v>46072.388888888891</v>
+      </c>
+      <c r="G1639" s="11">
+        <v>46072</v>
+      </c>
+      <c r="H1639" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1639" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="J1639" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1639" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1639" s="11">
+        <v>46072</v>
+      </c>
+      <c r="M1639" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1640" s="11">
+        <v>46072</v>
+      </c>
+      <c r="B1640" s="20" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C1640" s="7" t="s">
+        <v>3325</v>
+      </c>
+      <c r="D1640" s="7" t="s">
+        <v>3326</v>
+      </c>
+      <c r="E1640" s="18">
+        <v>46072.425694444442</v>
+      </c>
+      <c r="F1640" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1640)</f>
+        <v>46072.425694444442</v>
+      </c>
+      <c r="G1640" s="11"/>
+      <c r="H1640" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1640" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="J1640" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1640" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1640" s="11">
+        <v>46072</v>
+      </c>
+      <c r="M1640" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1641" s="11">
+        <v>46072</v>
+      </c>
+      <c r="B1641" s="20" t="s">
+        <v>3225</v>
+      </c>
+      <c r="C1641" s="7" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D1641" s="7" t="s">
+        <v>3328</v>
+      </c>
+      <c r="E1641" s="18">
+        <v>46072.541666666664</v>
+      </c>
+      <c r="F1641" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1641)</f>
+        <v>46073</v>
+      </c>
+      <c r="G1641" s="11">
+        <v>46072</v>
+      </c>
+      <c r="H1641" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1641" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="J1641" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1641" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>Mismo día</v>
+      </c>
+      <c r="L1641" s="11">
+        <v>46072</v>
+      </c>
+      <c r="M1641" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1642" s="11">
+        <v>46072</v>
+      </c>
+      <c r="B1642" s="20" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C1642" s="7" t="s">
+        <v>3329</v>
+      </c>
+      <c r="D1642" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E1642" s="18">
+        <v>46072.517361111109</v>
+      </c>
+      <c r="F1642" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1642)</f>
+        <v>46073</v>
+      </c>
+      <c r="G1642" s="11"/>
+      <c r="H1642" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1642" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="J1642" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1642" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>Mismo día</v>
+      </c>
+      <c r="L1642" s="11">
+        <v>46072</v>
+      </c>
+      <c r="M1642" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1643" s="11">
+        <v>46072</v>
+      </c>
+      <c r="B1643" s="20" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C1643" s="7" t="s">
+        <v>3330</v>
+      </c>
+      <c r="D1643" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E1643" s="18">
+        <v>46072.521527777775</v>
+      </c>
+      <c r="F1643" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1643)</f>
+        <v>46073</v>
+      </c>
+      <c r="G1643" s="11"/>
+      <c r="H1643" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1643" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="J1643" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1643" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>Mismo día</v>
+      </c>
+      <c r="L1643" s="11">
+        <v>46072</v>
+      </c>
+      <c r="M1643" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1644" s="11">
+        <v>46073</v>
+      </c>
+      <c r="B1644" s="20" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C1644" s="7" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D1644" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1644" s="18">
+        <v>46072.506249999999</v>
+      </c>
+      <c r="F1644" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1644)</f>
+        <v>46073</v>
+      </c>
+      <c r="G1644" s="11"/>
+      <c r="H1644" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1644" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="J1644" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1644" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1644" s="11">
+        <v>46073</v>
+      </c>
+      <c r="M1644" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1645" s="11">
+        <v>46073</v>
+      </c>
+      <c r="B1645" s="20" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C1645" s="7" t="s">
+        <v>3332</v>
+      </c>
+      <c r="D1645" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1645" s="18">
+        <v>46072.586111111108</v>
+      </c>
+      <c r="F1645" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1645)</f>
+        <v>46073</v>
+      </c>
+      <c r="G1645" s="11">
+        <v>46073</v>
+      </c>
+      <c r="H1645" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1645" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="J1645" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1645" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1645" s="11">
+        <v>46073</v>
+      </c>
+      <c r="M1645" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1646" s="11">
+        <v>46073</v>
+      </c>
+      <c r="B1646" s="20" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C1646" s="7" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D1646" s="7" t="s">
+        <v>2982</v>
+      </c>
+      <c r="E1646" s="18">
+        <v>46072.676388888889</v>
+      </c>
+      <c r="F1646" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1646)</f>
+        <v>46073</v>
+      </c>
+      <c r="G1646" s="11"/>
+      <c r="H1646" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1646" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="J1646" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1646" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1646" s="11">
+        <v>46073</v>
+      </c>
+      <c r="M1646" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1647" s="11">
+        <v>46073</v>
+      </c>
+      <c r="B1647" s="20" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C1647" s="7" t="s">
+        <v>3334</v>
+      </c>
+      <c r="D1647" s="7" t="s">
+        <v>3335</v>
+      </c>
+      <c r="E1647" s="18">
+        <v>46072.78125</v>
+      </c>
+      <c r="F1647" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1647)</f>
+        <v>46073</v>
+      </c>
+      <c r="G1647" s="11"/>
+      <c r="H1647" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1647" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="J1647" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1647" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1647" s="11">
+        <v>46073</v>
+      </c>
+      <c r="M1647" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1648" s="11">
+        <v>46073</v>
+      </c>
+      <c r="B1648" s="20" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C1648" s="7" t="s">
+        <v>3336</v>
+      </c>
+      <c r="D1648" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1648" s="18">
+        <v>46073.328472222223</v>
+      </c>
+      <c r="F1648" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1648)</f>
+        <v>46073.328472222223</v>
+      </c>
+      <c r="G1648" s="11">
+        <v>46076</v>
+      </c>
+      <c r="H1648" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1648" s="7">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+      <c r="J1648" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1648" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>A tiempo</v>
+      </c>
+      <c r="L1648" s="11">
+        <v>46073</v>
+      </c>
+      <c r="M1648" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1649" s="11">
+        <v>46073</v>
+      </c>
+      <c r="B1649" s="20" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C1649" s="7" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D1649" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1649" s="18"/>
+      <c r="F1649" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1649)</f>
+        <v>0</v>
+      </c>
+      <c r="G1649" s="11"/>
+      <c r="H1649" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1649" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="J1649" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1649" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1649" s="11">
+        <v>46073</v>
+      </c>
+      <c r="M1649" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1650" s="11">
+        <v>46073</v>
+      </c>
+      <c r="B1650" s="20" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C1650" s="7" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D1650" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1650" s="18"/>
+      <c r="F1650" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1650)</f>
+        <v>0</v>
+      </c>
+      <c r="G1650" s="11">
+        <v>46073</v>
+      </c>
+      <c r="H1650" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1650" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="J1650" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1650" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1650" s="11">
+        <v>46073</v>
+      </c>
+      <c r="M1650" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1651" s="11">
+        <v>46073</v>
+      </c>
+      <c r="B1651" s="20" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C1651" s="7" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D1651" s="7" t="s">
+        <v>3335</v>
+      </c>
+      <c r="E1651" s="18"/>
+      <c r="F1651" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1651)</f>
+        <v>0</v>
+      </c>
+      <c r="G1651" s="11"/>
+      <c r="H1651" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1651" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="J1651" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Acumulado</v>
+      </c>
+      <c r="K1651" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1651" s="11">
+        <v>46073</v>
+      </c>
+      <c r="M1651" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1652" s="11">
+        <v>46073</v>
+      </c>
+      <c r="B1652" s="20" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C1652" s="7" t="s">
+        <v>3340</v>
+      </c>
+      <c r="D1652" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E1652" s="18"/>
+      <c r="F1652" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1652)</f>
+        <v>0</v>
+      </c>
+      <c r="G1652" s="11">
+        <v>46073</v>
+      </c>
+      <c r="H1652" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1652" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="J1652" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1652" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1652" s="11">
+        <v>46073</v>
+      </c>
+      <c r="M1652" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1653" s="11">
+        <v>46073</v>
+      </c>
+      <c r="B1653" s="20" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C1653" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1653" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1653" s="18"/>
+      <c r="F1653" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1653)</f>
+        <v>0</v>
+      </c>
+      <c r="G1653" s="11">
+        <v>46076</v>
+      </c>
+      <c r="H1653" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1653" s="7">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+      <c r="J1653" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1653" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1653" s="11">
+        <v>46073</v>
+      </c>
+      <c r="M1653" s="22">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1654" s="11">
+        <v>46073</v>
+      </c>
+      <c r="B1654" s="20" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C1654" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1654" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1654" s="18"/>
+      <c r="F1654" s="11">
+        <f>IF(HOUR(Table1[[#This Row],[CORREO]])&gt;=11,WORKDAY(Table1[[#This Row],[CORREO]],1),E1654)</f>
+        <v>0</v>
+      </c>
+      <c r="G1654" s="11">
+        <v>46076</v>
+      </c>
+      <c r="H1654" s="7">
+        <f t="shared" si="146"/>
+        <v>8</v>
+      </c>
+      <c r="I1654" s="7">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+      <c r="J1654" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v>Dentro</v>
+      </c>
+      <c r="K1654" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>Programados</v>
+      </c>
+      <c r="L1654" s="11">
+        <v>46073</v>
+      </c>
+      <c r="M1654" s="22">
+        <f t="shared" si="150"/>
         <v>1</v>
       </c>
     </row>
@@ -80909,6 +87562,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a64998cf-cf83-41f5-8035-6179a29b75f5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009D7BF186FD1AD2439B4485692326A2C1" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="16c00868c62a6d04f5ab65f7f1e51a2e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a64998cf-cf83-41f5-8035-6179a29b75f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9201c9590aa9e2b03dccb5f0312f7ba" ns3:_="">
     <xsd:import namespace="a64998cf-cf83-41f5-8035-6179a29b75f5"/>
@@ -81096,14 +87757,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a64998cf-cf83-41f5-8035-6179a29b75f5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -81114,6 +87767,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0334801F-93EC-4464-93FF-65010DFB5927}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a64998cf-cf83-41f5-8035-6179a29b75f5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E923FBED-3605-438A-AA2E-0C6540DCFB47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -81131,16 +87794,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0334801F-93EC-4464-93FF-65010DFB5927}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a64998cf-cf83-41f5-8035-6179a29b75f5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71B820FD-D80D-47C3-B40F-F2564B00BC31}">
   <ds:schemaRefs>
